--- a/FRAP-analysis-190408.xlsx
+++ b/FRAP-analysis-190408.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramaguire/Google Drive/Thesis/Thesis Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB750F6D-0962-7948-BDC6-6A57889F28B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5B3D4-1C10-3A41-8326-F586FA7C3536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="4" xr2:uid="{A9073BF0-BA06-8246-BE23-0DC2BC3153F9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="7" xr2:uid="{A9073BF0-BA06-8246-BE23-0DC2BC3153F9}"/>
   </bookViews>
   <sheets>
     <sheet name="List of datasets" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'List of gels'!$A$1:$N$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="287">
   <si>
     <t>Gel type</t>
   </si>
@@ -1044,6 +1045,15 @@
   </si>
   <si>
     <t>19-2-15_13'</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>20 mg/mL only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 mg/mL </t>
   </si>
 </sst>
 </file>
@@ -1250,12 +1260,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1298,6 +1302,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2923,12 +2933,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCE53BD-3B7B-D940-AD50-20EF9D8E2A57}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J84" sqref="J84"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2997,7 +3006,7 @@
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
     </row>
-    <row r="2" spans="1:17" hidden="1">
+    <row r="2" spans="1:17">
       <c r="A2" s="16" t="s">
         <v>89</v>
       </c>
@@ -3044,21 +3053,21 @@
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:17" hidden="1">
+    <row r="3" spans="1:17">
       <c r="A3" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3" s="14">
         <v>1</v>
       </c>
       <c r="E3" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>42</v>
@@ -3076,16 +3085,14 @@
         <v>48</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>94</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M3" s="15"/>
       <c r="N3" s="14" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
@@ -3093,10 +3100,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>21</v>
@@ -3111,7 +3118,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>48</v>
@@ -3120,36 +3127,34 @@
         <v>38</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" hidden="1">
+    <row r="5" spans="1:17">
       <c r="A5" s="16" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="17">
         <v>10</v>
@@ -3167,16 +3172,16 @@
         <v>38</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>70</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="N5" s="14" t="s">
         <v>48</v>
@@ -3185,21 +3190,21 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:17" hidden="1">
+    <row r="6" spans="1:17">
       <c r="A6" s="16" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>42</v>
@@ -3208,7 +3213,7 @@
         <v>48</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>38</v>
@@ -3217,63 +3222,61 @@
         <v>48</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>114</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" hidden="1">
+    <row r="7" spans="1:17">
       <c r="A7" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7" s="14">
         <v>2</v>
       </c>
       <c r="E7" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>70</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -3281,10 +3284,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>21</v>
@@ -3302,13 +3305,13 @@
         <v>48</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>38</v>
@@ -3317,7 +3320,7 @@
         <v>70</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="N8" s="14" t="s">
         <v>48</v>
@@ -3326,12 +3329,12 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" hidden="1">
+    <row r="9" spans="1:17">
       <c r="A9" s="16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>21</v>
@@ -3349,57 +3352,54 @@
         <v>48</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="N9" s="14" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" hidden="1">
+    <row r="10" spans="1:17">
       <c r="A10" s="16" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D10" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>48</v>
@@ -3411,39 +3411,39 @@
         <v>79</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>48</v>
+        <v>76</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" hidden="1">
+    <row r="11" spans="1:17">
       <c r="A11" s="16" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D11" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>38</v>
@@ -3452,16 +3452,14 @@
         <v>48</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>48</v>
+      <c r="M11" s="14"/>
+      <c r="N11" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
@@ -3469,10 +3467,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="16" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>21</v>
@@ -3487,28 +3485,25 @@
         <v>42</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="N12" s="14" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
@@ -3516,10 +3511,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>21</v>
@@ -3549,7 +3544,7 @@
         <v>38</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>113</v>
@@ -3561,24 +3556,24 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" hidden="1">
+    <row r="14" spans="1:17">
       <c r="A14" s="16" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="17">
         <v>10</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>48</v>
@@ -3587,16 +3582,19 @@
         <v>38</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>48</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="N14" s="14" t="s">
         <v>48</v>
@@ -3605,24 +3603,24 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" hidden="1">
+    <row r="15" spans="1:17">
       <c r="A15" s="16" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="17">
         <v>10</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>48</v>
@@ -3631,16 +3629,19 @@
         <v>38</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>48</v>
@@ -3649,68 +3650,68 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" hidden="1">
+    <row r="16" spans="1:17">
       <c r="A16" s="16" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="17">
         <v>10</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>48</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>70</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" hidden="1">
+    <row r="17" spans="1:17">
       <c r="A17" s="16" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D17" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>48</v>
@@ -3722,16 +3723,16 @@
         <v>38</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>174</v>
+        <v>79</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="N17" s="14" t="s">
         <v>48</v>
@@ -3740,15 +3741,15 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" hidden="1">
+    <row r="18" spans="1:17">
       <c r="A18" s="16" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="14">
         <v>1</v>
@@ -3760,16 +3761,16 @@
         <v>35</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>48</v>
@@ -3778,18 +3779,18 @@
         <v>79</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" hidden="1">
+    <row r="19" spans="1:17">
       <c r="A19" s="16" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>21</v>
@@ -3810,10 +3811,10 @@
         <v>38</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>48</v>
@@ -3822,24 +3823,24 @@
         <v>70</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" hidden="1">
+    <row r="20" spans="1:17">
       <c r="A20" s="16" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="17">
         <v>10</v>
@@ -3848,13 +3849,13 @@
         <v>35</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>48</v>
@@ -3863,42 +3864,39 @@
         <v>48</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="16" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>48</v>
@@ -3907,105 +3905,100 @@
         <v>48</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="16" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D22" s="14">
         <v>1</v>
       </c>
       <c r="E22" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>48</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M22" s="14"/>
       <c r="N22" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="16" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D23" s="14">
         <v>1</v>
       </c>
       <c r="E23" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>48</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="15"/>
+        <v>75</v>
+      </c>
       <c r="N23" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1">
+    <row r="24" spans="1:17">
       <c r="A24" s="16" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>21</v>
@@ -4017,16 +4010,16 @@
         <v>10</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>48</v>
@@ -4035,37 +4028,36 @@
         <v>48</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="15"/>
+        <v>75</v>
+      </c>
       <c r="N24" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1">
+    <row r="25" spans="1:17">
       <c r="A25" s="16" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D25" s="14">
         <v>1</v>
       </c>
       <c r="E25" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>38</v>
@@ -4074,22 +4066,21 @@
         <v>48</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M25" s="15"/>
       <c r="N25" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="16" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>21</v>
@@ -4101,13 +4092,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>38</v>
@@ -4121,59 +4112,57 @@
       <c r="L26" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M26" s="14"/>
       <c r="N26" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="16" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
       </c>
       <c r="E27" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" s="14"/>
       <c r="N27" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1">
+    <row r="28" spans="1:17">
       <c r="A28" s="16" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>21</v>
@@ -4185,16 +4174,16 @@
         <v>10</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>48</v>
@@ -4205,35 +4194,34 @@
       <c r="L28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M28" s="14"/>
       <c r="N28" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="16" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D29" s="14">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I29" s="17" t="s">
         <v>38</v>
@@ -4242,48 +4230,45 @@
         <v>48</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="16" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="14">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="17">
         <v>10</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I30" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>48</v>
@@ -4291,66 +4276,66 @@
       <c r="L30" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M30" s="14" t="s">
-        <v>96</v>
-      </c>
       <c r="N30" s="14" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="16" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="14">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="17">
         <v>10</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>79</v>
+        <v>192</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="16" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="17">
         <v>10</v>
@@ -4362,10 +4347,10 @@
         <v>48</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>48</v>
@@ -4377,27 +4362,27 @@
         <v>79</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="N32" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1">
+    <row r="33" spans="1:14">
       <c r="A33" s="16" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D33" s="14">
         <v>1</v>
       </c>
       <c r="E33" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>35</v>
@@ -4406,57 +4391,54 @@
         <v>48</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1">
+        <v>70</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="16" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="17">
         <v>10</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>48</v>
@@ -4465,118 +4447,115 @@
         <v>70</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="16" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D35" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>48</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N35" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="16" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D36" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="N36" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="16" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>38</v>
@@ -4585,30 +4564,30 @@
         <v>48</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D38" s="14">
         <v>1</v>
       </c>
       <c r="E38" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>35</v>
@@ -4631,19 +4610,16 @@
       <c r="L38" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M38" s="16" t="s">
-        <v>140</v>
-      </c>
       <c r="N38" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="16" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>20</v>
@@ -4652,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>35</v>
@@ -4673,27 +4649,30 @@
         <v>48</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="14">
         <v>1</v>
       </c>
       <c r="E40" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>35</v>
@@ -4720,12 +4699,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1">
+    <row r="41" spans="1:14">
       <c r="A41" s="16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C41" s="17" t="s">
         <v>20</v>
@@ -4734,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>35</v>
@@ -4758,24 +4737,24 @@
         <v>75</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="16" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="14">
         <v>1</v>
       </c>
       <c r="E42" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>35</v>
@@ -4799,15 +4778,15 @@
         <v>75</v>
       </c>
       <c r="N42" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="16" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>20</v>
@@ -4816,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>35</v>
@@ -4828,7 +4807,7 @@
         <v>38</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>48</v>
@@ -4839,34 +4818,31 @@
       <c r="L43" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="M43" s="14" t="s">
-        <v>175</v>
-      </c>
       <c r="N43" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="14">
         <v>1</v>
       </c>
       <c r="E44" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H44" s="17" t="s">
         <v>38</v>
@@ -4875,39 +4851,39 @@
         <v>48</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="16" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D45" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E45" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H45" s="17" t="s">
         <v>38</v>
@@ -4925,27 +4901,27 @@
         <v>75</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="N45" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1">
+    <row r="46" spans="1:14">
       <c r="A46" s="16" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E46" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>35</v>
@@ -4957,7 +4933,7 @@
         <v>38</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>48</v>
@@ -4966,30 +4942,27 @@
         <v>48</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" hidden="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="16" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D47" s="14">
         <v>1</v>
       </c>
       <c r="E47" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>35</v>
@@ -4998,10 +4971,10 @@
         <v>38</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>48</v>
@@ -5010,25 +4983,24 @@
         <v>48</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M47" s="14"/>
-      <c r="N47" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1">
+        <v>79</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="16" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E48" s="17">
         <v>10</v>
@@ -5040,7 +5012,7 @@
         <v>48</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>38</v>
@@ -5052,28 +5024,27 @@
         <v>48</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M48" s="14"/>
-      <c r="N48" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" hidden="1">
+        <v>79</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="16" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D49" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E49" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>35</v>
@@ -5082,7 +5053,7 @@
         <v>48</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I49" s="17" t="s">
         <v>38</v>
@@ -5094,28 +5065,27 @@
         <v>48</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M49" s="14"/>
-      <c r="N49" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" hidden="1">
+        <v>79</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="16" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D50" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E50" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>35</v>
@@ -5136,7 +5106,10 @@
         <v>48</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="N50" s="14" t="s">
         <v>38</v>
@@ -5144,16 +5117,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="16" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="17">
         <v>10</v>
@@ -5162,7 +5135,7 @@
         <v>35</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H51" s="17" t="s">
         <v>38</v>
@@ -5171,24 +5144,27 @@
         <v>38</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K51" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="N51" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="16" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>20</v>
@@ -5197,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>35</v>
@@ -5212,7 +5188,7 @@
         <v>38</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K52" s="14" t="s">
         <v>48</v>
@@ -5224,12 +5200,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1">
+    <row r="53" spans="1:14">
       <c r="A53" s="16" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>20</v>
@@ -5238,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>35</v>
@@ -5250,10 +5226,10 @@
         <v>38</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K53" s="14" t="s">
         <v>48</v>
@@ -5267,19 +5243,19 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D54" s="14">
         <v>1</v>
       </c>
       <c r="E54" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>35</v>
@@ -5291,10 +5267,10 @@
         <v>38</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K54" s="14" t="s">
         <v>48</v>
@@ -5306,12 +5282,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1">
+    <row r="55" spans="1:14">
       <c r="A55" s="16" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>20</v>
@@ -5320,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>35</v>
@@ -5329,10 +5305,10 @@
         <v>48</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>48</v>
@@ -5343,19 +5319,16 @@
       <c r="L55" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M55" s="14" t="s">
-        <v>141</v>
-      </c>
       <c r="N55" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1">
+    <row r="56" spans="1:14">
       <c r="A56" s="16" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>7</v>
@@ -5367,77 +5340,79 @@
         <v>0</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J56" s="14" t="s">
         <v>48</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>70</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M56" s="14"/>
       <c r="N56" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="16" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D57" s="14">
         <v>1</v>
       </c>
       <c r="E57" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G57" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>48</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L57" s="14" t="s">
         <v>79</v>
       </c>
+      <c r="M57" s="15"/>
       <c r="N57" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="16" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>7</v>
@@ -5449,13 +5424,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I58" s="17" t="s">
         <v>38</v>
@@ -5464,21 +5439,24 @@
         <v>48</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L58" s="14" t="s">
         <v>75</v>
       </c>
+      <c r="M58" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="N58" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="16" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>7</v>
@@ -5490,13 +5468,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G59" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I59" s="17" t="s">
         <v>38</v>
@@ -5505,80 +5483,82 @@
         <v>48</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L59" s="14" t="s">
-        <v>75</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="M59" s="15"/>
       <c r="N59" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="16" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D60" s="14">
         <v>1</v>
       </c>
       <c r="E60" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J60" s="14" t="s">
         <v>48</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>70</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M60" s="14"/>
       <c r="N60" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="16" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="17">
         <v>0</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I61" s="17" t="s">
         <v>38</v>
@@ -5587,42 +5567,45 @@
         <v>48</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="N61" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="16" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D62" s="14">
         <v>1</v>
       </c>
       <c r="E62" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J62" s="14" t="s">
         <v>48</v>
@@ -5631,18 +5614,19 @@
         <v>48</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" hidden="1">
+        <v>70</v>
+      </c>
+      <c r="M62" s="14"/>
+      <c r="N62" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="16" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>7</v>
@@ -5660,7 +5644,7 @@
         <v>48</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>38</v>
@@ -5672,18 +5656,19 @@
         <v>48</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" hidden="1">
+        <v>70</v>
+      </c>
+      <c r="M63" s="14"/>
+      <c r="N63" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="16" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>7</v>
@@ -5698,10 +5683,10 @@
         <v>35</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I64" s="17" t="s">
         <v>38</v>
@@ -5713,30 +5698,33 @@
         <v>48</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N64" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1">
+        <v>75</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N64" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="16" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D65" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G65" s="17" t="s">
         <v>48</v>
@@ -5751,33 +5739,36 @@
         <v>48</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L65" s="14" t="s">
         <v>79</v>
       </c>
+      <c r="M65" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="N65" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="16" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="17">
         <v>0</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G66" s="17" t="s">
         <v>48</v>
@@ -5792,33 +5783,36 @@
         <v>48</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="N66" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="16" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D67" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G67" s="17" t="s">
         <v>48</v>
@@ -5836,30 +5830,33 @@
         <v>48</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="N67" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="16" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D68" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G68" s="17" t="s">
         <v>48</v>
@@ -5874,39 +5871,42 @@
         <v>48</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L68" s="14" t="s">
         <v>70</v>
       </c>
+      <c r="M68" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="N68" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="16" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>171</v>
+        <v>6</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="17">
         <v>0</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>38</v>
@@ -5920,34 +5920,37 @@
       <c r="L69" s="14" t="s">
         <v>75</v>
       </c>
+      <c r="M69" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="N69" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="16" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D70" s="14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E70" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G70" s="17" t="s">
         <v>48</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>38</v>
@@ -5956,27 +5959,27 @@
         <v>48</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N70" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="16" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E71" s="17">
         <v>0</v>
@@ -5991,7 +5994,7 @@
         <v>38</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J71" s="14" t="s">
         <v>48</v>
@@ -6002,25 +6005,28 @@
       <c r="L71" s="14" t="s">
         <v>79</v>
       </c>
+      <c r="M71" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="N71" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="16" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D72" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E72" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>35</v>
@@ -6041,27 +6047,27 @@
         <v>48</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N72" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1">
+    <row r="73" spans="1:14">
       <c r="A73" s="16" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D73" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E73" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>35</v>
@@ -6082,24 +6088,24 @@
         <v>48</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="N73" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1">
+    <row r="74" spans="1:14">
       <c r="A74" s="16" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E74" s="17">
         <v>0</v>
@@ -6123,30 +6129,27 @@
         <v>48</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="M74" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N74" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1">
+    <row r="75" spans="1:14">
       <c r="A75" s="16" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D75" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E75" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>35</v>
@@ -6167,27 +6170,27 @@
         <v>48</v>
       </c>
       <c r="L75" s="14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N75" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1">
+    <row r="76" spans="1:14">
       <c r="A76" s="16" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D76" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E76" s="17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>35</v>
@@ -6208,27 +6211,24 @@
         <v>48</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M76" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N76" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1">
+    <row r="77" spans="1:14">
       <c r="A77" s="16" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E77" s="17">
         <v>0</v>
@@ -6252,18 +6252,18 @@
         <v>48</v>
       </c>
       <c r="L77" s="14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N77" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1">
+    <row r="78" spans="1:14">
       <c r="A78" s="16" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>7</v>
@@ -6278,10 +6278,10 @@
         <v>35</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I78" s="17" t="s">
         <v>38</v>
@@ -6293,10 +6293,7 @@
         <v>48</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M78" s="14" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="N78" s="14" t="s">
         <v>38</v>
@@ -6304,19 +6301,19 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="16" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D79" s="14">
         <v>1</v>
       </c>
       <c r="E79" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>35</v>
@@ -6331,24 +6328,27 @@
         <v>38</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K79" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L79" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="M79" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="N79" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="16" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>7</v>
@@ -6372,16 +6372,13 @@
         <v>38</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M80" s="14" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="N80" s="14" t="s">
         <v>38</v>
@@ -6389,19 +6386,19 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="16" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D81" s="14">
         <v>1</v>
       </c>
       <c r="E81" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>35</v>
@@ -6413,16 +6410,16 @@
         <v>38</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K81" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L81" s="14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N81" s="14" t="s">
         <v>38</v>
@@ -6430,57 +6427,60 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="16" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D82" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E82" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H82" s="17" t="s">
         <v>38</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K82" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="M82" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="N82" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" hidden="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="16" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E83" s="17">
         <v>0</v>
@@ -6495,7 +6495,7 @@
         <v>38</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J83" s="14" t="s">
         <v>48</v>
@@ -6504,7 +6504,7 @@
         <v>48</v>
       </c>
       <c r="L83" s="14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="N83" s="14" t="s">
         <v>38</v>
@@ -6512,19 +6512,19 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="16" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D84" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E84" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>35</v>
@@ -6539,33 +6539,36 @@
         <v>38</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K84" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="M84" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="N84" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1">
+    <row r="85" spans="1:14">
       <c r="A85" s="16" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D85" s="14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E85" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>35</v>
@@ -6577,7 +6580,7 @@
         <v>38</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J85" s="14" t="s">
         <v>48</v>
@@ -6594,19 +6597,19 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D86" s="14">
         <v>1</v>
       </c>
       <c r="E86" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>35</v>
@@ -6618,10 +6621,10 @@
         <v>48</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K86" s="14" t="s">
         <v>48</v>
@@ -6629,25 +6632,28 @@
       <c r="L86" s="14" t="s">
         <v>70</v>
       </c>
+      <c r="M86" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="N86" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1">
+    <row r="87" spans="1:14">
       <c r="A87" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D87" s="14">
         <v>1</v>
       </c>
       <c r="E87" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>35</v>
@@ -6656,30 +6662,33 @@
         <v>48</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I87" s="17" t="s">
         <v>38</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K87" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L87" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="M87" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="N87" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1">
+    <row r="88" spans="1:14">
       <c r="A88" s="16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>7</v>
@@ -6711,28 +6720,25 @@
       <c r="L88" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M88" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="N88" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D89" s="14">
         <v>1</v>
       </c>
       <c r="E89" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>35</v>
@@ -6747,28 +6753,24 @@
         <v>38</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K89" s="14" t="s">
         <v>48</v>
       </c>
       <c r="L89" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="M89" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="N89" s="14" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N89" xr:uid="{AD78B681-3BD5-0F4E-9BE9-B4C0D7213C3D}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:N89">
-    <sortCondition ref="N2:N89"/>
+  <sortState ref="A2:N90">
+    <sortCondition ref="C2:C90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6780,7 +6782,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A14" sqref="A14:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6883,7 +6885,7 @@
         <v>22.884319607715199</v>
       </c>
       <c r="F4" s="19">
-        <f t="shared" ref="F4:F9" si="0">D4/E4</f>
+        <f>D4/E4</f>
         <v>0.60877559096592826</v>
       </c>
       <c r="G4" s="19">
@@ -6910,7 +6912,7 @@
         <v>36.095885683268797</v>
       </c>
       <c r="F5" s="19">
-        <f t="shared" si="0"/>
+        <f>D5/E5</f>
         <v>0.37065280434427089</v>
       </c>
       <c r="G5" s="19">
@@ -6937,7 +6939,7 @@
         <v>46.031094424366202</v>
       </c>
       <c r="F6" s="19">
-        <f t="shared" si="0"/>
+        <f>D6/E6</f>
         <v>0.43935196350832717</v>
       </c>
       <c r="G6" s="19">
@@ -6964,7 +6966,7 @@
         <v>22.326414077468499</v>
       </c>
       <c r="F7" s="19">
-        <f t="shared" si="0"/>
+        <f>D7/E7</f>
         <v>0.55795189052015715</v>
       </c>
       <c r="G7" s="19">
@@ -6991,7 +6993,7 @@
         <v>41.3677583378227</v>
       </c>
       <c r="F8" s="19">
-        <f t="shared" si="0"/>
+        <f>D8/E8</f>
         <v>0.26461234921016369</v>
       </c>
       <c r="G8" s="19">
@@ -7018,7 +7020,7 @@
         <v>70.394190376426295</v>
       </c>
       <c r="F9" s="19">
-        <f t="shared" si="0"/>
+        <f>D9/E9</f>
         <v>0.60198759042068162</v>
       </c>
       <c r="G9" s="19">
@@ -7091,7 +7093,7 @@
         <v>20.183808492096901</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" ref="F12:F19" si="1">D12/E12</f>
+        <f>D12/E12</f>
         <v>0.36472679696294841</v>
       </c>
       <c r="G12" s="19">
@@ -7118,7 +7120,7 @@
         <v>10.9011360963647</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" si="1"/>
+        <f>D13/E13</f>
         <v>1.0045183854533497</v>
       </c>
       <c r="G13" s="19">
@@ -7145,7 +7147,7 @@
         <v>44.560245626773103</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" si="1"/>
+        <f>D14/E14</f>
         <v>0.28684403889044308</v>
       </c>
       <c r="G14" s="19">
@@ -7172,7 +7174,7 @@
         <v>43.183541617449301</v>
       </c>
       <c r="F15" s="19">
-        <f t="shared" si="1"/>
+        <f>D15/E15</f>
         <v>0.23867899468183543</v>
       </c>
       <c r="G15" s="19">
@@ -7199,7 +7201,7 @@
         <v>30.9104011446341</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="1"/>
+        <f>D16/E16</f>
         <v>0.2702371329976847</v>
       </c>
       <c r="G16" s="19">
@@ -7226,7 +7228,7 @@
         <v>42.569398411928901</v>
       </c>
       <c r="F17" s="19">
-        <f t="shared" si="1"/>
+        <f>D17/E17</f>
         <v>0.22078487921957637</v>
       </c>
       <c r="G17" s="19">
@@ -7253,7 +7255,7 @@
         <v>39.711930712395898</v>
       </c>
       <c r="F18" s="19">
-        <f t="shared" si="1"/>
+        <f>D18/E18</f>
         <v>0.6731692392224502</v>
       </c>
       <c r="G18" s="19">
@@ -7280,7 +7282,7 @@
         <v>53.360414862107604</v>
       </c>
       <c r="F19" s="19">
-        <f t="shared" si="1"/>
+        <f>D19/E19</f>
         <v>0.30545577365373805</v>
       </c>
       <c r="G19" s="19">
@@ -7330,7 +7332,7 @@
         <v>29.004986266572899</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" ref="F21:F38" si="2">D21/E21</f>
+        <f>D21/E21</f>
         <v>0.96243878855704679</v>
       </c>
       <c r="G21" s="19">
@@ -7357,7 +7359,7 @@
         <v>18.146837422999901</v>
       </c>
       <c r="F22" s="19">
-        <f t="shared" si="2"/>
+        <f>D22/E22</f>
         <v>0.1451881227913602</v>
       </c>
       <c r="G22" s="19">
@@ -7384,7 +7386,7 @@
         <v>17.811075266206501</v>
       </c>
       <c r="F23" s="19">
-        <f t="shared" si="2"/>
+        <f>D23/E23</f>
         <v>3.0005267044081834E-2</v>
       </c>
       <c r="G23" s="19">
@@ -7411,7 +7413,7 @@
         <v>26.701718003743199</v>
       </c>
       <c r="F24" s="19">
-        <f t="shared" si="2"/>
+        <f>D24/E24</f>
         <v>1.5570226973613028</v>
       </c>
       <c r="G24" s="19">
@@ -7438,7 +7440,7 @@
         <v>71.213773666190406</v>
       </c>
       <c r="F25" s="19">
-        <f t="shared" si="2"/>
+        <f>D25/E25</f>
         <v>0.96405073143146136</v>
       </c>
       <c r="G25" s="19">
@@ -7465,7 +7467,7 @@
         <v>26.402570800341099</v>
       </c>
       <c r="F26" s="19">
-        <f t="shared" si="2"/>
+        <f>D26/E26</f>
         <v>0.95749146887188352</v>
       </c>
       <c r="G26" s="19">
@@ -7492,7 +7494,7 @@
         <v>126.26430006096</v>
       </c>
       <c r="F27" s="19">
-        <f t="shared" si="2"/>
+        <f>D27/E27</f>
         <v>1.404117603401104</v>
       </c>
       <c r="G27" s="19">
@@ -7519,7 +7521,7 @@
         <v>71.499631169558</v>
       </c>
       <c r="F28" s="19">
-        <f t="shared" si="2"/>
+        <f>D28/E28</f>
         <v>1.0069137256904195</v>
       </c>
       <c r="G28" s="19">
@@ -7546,7 +7548,7 @@
         <v>25.8287038913023</v>
       </c>
       <c r="F29" s="19">
-        <f t="shared" si="2"/>
+        <f>D29/E29</f>
         <v>1.2828262483032118</v>
       </c>
       <c r="G29" s="19">
@@ -7573,7 +7575,7 @@
         <v>68.139648991330205</v>
       </c>
       <c r="F30" s="19">
-        <f t="shared" si="2"/>
+        <f>D30/E30</f>
         <v>1.4692981262965343</v>
       </c>
       <c r="G30" s="19">
@@ -7600,7 +7602,7 @@
         <v>26.520995286782401</v>
       </c>
       <c r="F31" s="19">
-        <f t="shared" si="2"/>
+        <f>D31/E31</f>
         <v>1.0117614108037212</v>
       </c>
       <c r="G31" s="19">
@@ -7627,7 +7629,7 @@
         <v>27.622707706662698</v>
       </c>
       <c r="F32" s="19">
-        <f t="shared" si="2"/>
+        <f>D32/E32</f>
         <v>1.1281598550893877</v>
       </c>
       <c r="G32" s="19">
@@ -7654,7 +7656,7 @@
         <v>61.437581286543498</v>
       </c>
       <c r="F33" s="19">
-        <f t="shared" si="2"/>
+        <f>D33/E33</f>
         <v>1.2172183985133884</v>
       </c>
       <c r="G33" s="19">
@@ -7681,7 +7683,7 @@
         <v>15.207550491225399</v>
       </c>
       <c r="F34" s="19">
-        <f t="shared" si="2"/>
+        <f>D34/E34</f>
         <v>0.71470362157600187</v>
       </c>
       <c r="G34" s="19">
@@ -7708,7 +7710,7 @@
         <v>31.9935373143629</v>
       </c>
       <c r="F35" s="19">
-        <f t="shared" si="2"/>
+        <f>D35/E35</f>
         <v>1.1813003617494651</v>
       </c>
       <c r="G35" s="19">
@@ -7735,7 +7737,7 @@
         <v>15.584490555396</v>
       </c>
       <c r="F36" s="19">
-        <f t="shared" si="2"/>
+        <f>D36/E36</f>
         <v>1.1764208285663489</v>
       </c>
       <c r="G36" s="19">
@@ -7762,7 +7764,7 @@
         <v>44.2171995934142</v>
       </c>
       <c r="F37" s="19">
-        <f t="shared" si="2"/>
+        <f>D37/E37</f>
         <v>0.9224738762852166</v>
       </c>
       <c r="G37" s="19">
@@ -7789,7 +7791,7 @@
         <v>57.944403738835199</v>
       </c>
       <c r="F38" s="19">
-        <f t="shared" si="2"/>
+        <f>D38/E38</f>
         <v>1.429838654159441</v>
       </c>
       <c r="G38" s="19">
@@ -7914,8 +7916,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H48">
-    <sortCondition ref="C2:C48"/>
+  <sortState ref="A2:H45">
+    <sortCondition ref="C2:C45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8249,7 +8251,7 @@
       <c r="A12" s="19">
         <v>26</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="68" t="s">
         <v>283</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -8547,7 +8549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F266BC4-FC20-6B4F-9B8B-2DD2735E4038}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -8567,57 +8569,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:14" s="36" customFormat="1" ht="18">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60" t="s">
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="34" customFormat="1" ht="18">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="69"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="56">
+      <c r="B3" s="54">
         <v>1</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="50">
         <v>41.575180990369098</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="51">
         <v>26.701718003743199</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="52">
         <v>0.63847559224578498</v>
       </c>
       <c r="G3" s="25">
         <v>0.51804560706973102</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="53">
         <f t="shared" ref="H3:H17" si="0">1-G3/F3</f>
         <v>0.18862112606756265</v>
       </c>
@@ -8627,25 +8629,25 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="57">
+      <c r="B4" s="55">
         <v>4</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="45">
         <v>68.653690590885404</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="36">
         <v>71.213773666190406</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="42">
         <v>0.570302574906566</v>
       </c>
       <c r="G4" s="2">
         <v>0.51505930004399503</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="47">
         <f t="shared" si="0"/>
         <v>9.6866606067176897E-2</v>
       </c>
@@ -8655,25 +8657,25 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="56">
+      <c r="B5" s="54">
         <v>7</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="50">
         <v>25.2802362976125</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="51">
         <v>26.402570800341099</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="52">
         <v>0.51542088790752405</v>
       </c>
       <c r="G5" s="25">
         <v>0.52152694410839195</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="53">
         <f t="shared" si="0"/>
         <v>-1.1846737965271359E-2</v>
       </c>
@@ -8683,25 +8685,25 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>10</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>177.28992639671301</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>126.26430006096</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="42">
         <v>0.60001869054511403</v>
       </c>
       <c r="G6" s="2">
         <v>0.69397941816229602</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>-0.15659633457720989</v>
       </c>
@@ -8711,25 +8713,25 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="56">
+      <c r="B7" s="54">
         <v>13</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="50">
         <v>71.993960006430498</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="51">
         <v>71.499631169558</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="52">
         <v>0.65976374422412598</v>
       </c>
       <c r="G7" s="25">
         <v>0.61288586158568203</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <f t="shared" si="0"/>
         <v>7.1052529104295936E-2</v>
       </c>
@@ -8739,25 +8741,25 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>33.133739311413898</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>25.8287038913023</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="42">
         <v>0.43777082911985499</v>
       </c>
       <c r="G8" s="2">
         <v>0.472163938441783</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="47">
         <f t="shared" si="0"/>
         <v>-7.8564187090939486E-2</v>
       </c>
@@ -8767,25 +8769,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="56">
+      <c r="B9" s="54">
         <v>20</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="50">
         <v>100.117458589465</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="51">
         <v>68.139648991330205</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="52">
         <v>0.42256801874060901</v>
       </c>
       <c r="G9" s="25">
         <v>0.49165399158114997</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="53">
         <f t="shared" si="0"/>
         <v>-0.16349077492054365</v>
       </c>
@@ -8795,25 +8797,25 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="57">
+      <c r="B10" s="55">
         <v>24</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>26.832919607273801</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>26.520995286782401</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="42">
         <v>0.20572810225569299</v>
       </c>
       <c r="G10" s="2">
         <v>0.29748988283993699</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>-0.44603425384343542</v>
       </c>
@@ -8823,25 +8825,25 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="56">
+      <c r="B11" s="54">
         <v>25</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="50">
         <v>31.162829923525099</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="51">
         <v>27.622707706662698</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <v>0.39634094192997399</v>
       </c>
       <c r="G11" s="25">
         <v>0.41780485629553299</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="53">
         <f t="shared" si="0"/>
         <v>-5.4155178269095661E-2</v>
       </c>
@@ -8851,26 +8853,26 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:14" s="24" customFormat="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="57">
+      <c r="A12" s="37"/>
+      <c r="B12" s="55">
         <v>26</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="45">
         <v>74.782954302142599</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>61.437581286543498</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="42">
         <v>0.48172188415206202</v>
       </c>
       <c r="G12" s="2">
         <v>0.45080865072624798</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="48">
         <f t="shared" si="0"/>
         <v>6.4172366759355781E-2</v>
       </c>
@@ -8882,26 +8884,26 @@
       <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" s="24" customFormat="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="56">
+      <c r="A13" s="37"/>
+      <c r="B13" s="54">
         <v>28</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="50">
         <v>10.8688914113787</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="51">
         <v>15.207550491225399</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="52">
         <v>0.41937615905339198</v>
       </c>
       <c r="G13" s="25">
         <v>0.42485405650164798</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <f t="shared" si="0"/>
         <v>-1.3062014446936221E-2</v>
       </c>
@@ -8913,26 +8915,26 @@
       <c r="N13" s="33"/>
     </row>
     <row r="14" spans="1:14" s="24" customFormat="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="57">
+      <c r="A14" s="37"/>
+      <c r="B14" s="55">
         <v>30</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="45">
         <v>37.793977203101903</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>31.9935373143629</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="42">
         <v>0.528499139535201</v>
       </c>
       <c r="G14" s="2">
         <v>0.52038476601907702</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="47">
         <f t="shared" si="0"/>
         <v>1.5353617270333353E-2</v>
       </c>
@@ -8944,26 +8946,26 @@
       <c r="N14" s="33"/>
     </row>
     <row r="15" spans="1:14" s="24" customFormat="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="56">
+      <c r="A15" s="37"/>
+      <c r="B15" s="54">
         <v>31</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="50">
         <v>18.333919291963401</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="51">
         <v>15.584490555396</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="52">
         <v>0.39409600550881702</v>
       </c>
       <c r="G15" s="25">
         <v>0.42347882825524402</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="53">
         <f t="shared" si="0"/>
         <v>-7.4557524906883721E-2</v>
       </c>
@@ -8975,26 +8977,26 @@
       <c r="N15" s="33"/>
     </row>
     <row r="16" spans="1:14" s="24" customFormat="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="57">
+      <c r="A16" s="37"/>
+      <c r="B16" s="55">
         <v>33</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="45">
         <v>40.789211507413903</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="36">
         <v>44.2171995934142</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="42">
         <v>0.43902393600891298</v>
       </c>
       <c r="G16" s="2">
         <v>0.41270348255525702</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="47">
         <f t="shared" si="0"/>
         <v>5.9952206007103936E-2</v>
       </c>
@@ -9006,26 +9008,26 @@
       <c r="N16" s="33"/>
     </row>
     <row r="17" spans="1:14" s="24" customFormat="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="56">
+      <c r="A17" s="37"/>
+      <c r="B17" s="54">
         <v>41</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="50">
         <v>82.851148258007399</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="51">
         <v>57.944403738835199</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="52">
         <v>0.45433700239720098</v>
       </c>
       <c r="G17" s="25">
         <v>0.47323462504554298</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="53">
         <f t="shared" si="0"/>
         <v>-4.1593844544100866E-2</v>
       </c>
@@ -9037,14 +9039,14 @@
       <c r="N17" s="33"/>
     </row>
     <row r="18" spans="1:14" s="24" customFormat="1">
-      <c r="A18" s="71"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="51"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -9053,48 +9055,48 @@
       <c r="N18" s="33"/>
     </row>
     <row r="19" spans="1:14" s="19" customFormat="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="D19" s="43">
+      <c r="B19" s="55"/>
+      <c r="D19" s="41">
         <v>56.097336245846421</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="67">
         <v>46.438587503776503</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="41">
         <v>0.47756290056872219</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="67">
         <v>0.48307161394876774</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="46">
         <v>-3.6258826619239182E-2</v>
       </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:14" s="19" customFormat="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="D20" s="44">
+      <c r="B20" s="55"/>
+      <c r="D20" s="42">
         <v>42.517044624304617</v>
       </c>
       <c r="E20" s="2">
         <v>29.940116356374318</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="42">
         <v>0.11470684933067432</v>
       </c>
       <c r="G20" s="2">
         <v>9.1952706435076137E-2</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="47">
         <v>0.14763377367913261</v>
       </c>
       <c r="I20" s="21"/>
@@ -9103,29 +9105,29 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:14" s="19" customFormat="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="61">
+      <c r="B21" s="56"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="59">
         <v>11.36315814873762</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="60">
         <v>8.0018326804070909</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="59">
         <v>3.0656695007977366E-2</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="60">
         <v>2.4575394519047025E-2</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="63">
         <v>3.9456785701702773E-2</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:14" s="19" customFormat="1">
@@ -9346,14 +9348,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="72"/>
+      <c r="M1" s="73" t="s">
         <v>266</v>
       </c>
-      <c r="N1" s="35"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -10354,7 +10356,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:K14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10373,629 +10375,629 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:14" s="36" customFormat="1" ht="18">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60" t="s">
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="34" customFormat="1" ht="18">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="L2" s="43"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="56">
+      <c r="B3" s="54">
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="50">
         <v>29.014212707890501</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="51">
         <v>49.1064179566864</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="52">
         <v>2.0626883146966799</v>
       </c>
       <c r="G3" s="25">
         <v>0.54245987176745303</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="52">
         <f t="shared" ref="H3:H14" si="0">1-G3/F3</f>
         <v>0.73701316485752133</v>
       </c>
-      <c r="I3" s="55">
-        <f>(D3-(1-H3)*E3)/H3</f>
+      <c r="I3" s="53">
+        <f t="shared" ref="I3:I14" si="1">(D3-(1-H3)*E3)/H3</f>
         <v>21.844753977210395</v>
       </c>
-      <c r="J3" s="54">
-        <f>1/(1+3*E3/$C$35)</f>
+      <c r="J3" s="52">
+        <f t="shared" ref="J3:J14" si="2">1/(1+3*E3/$C$35)</f>
         <v>0.15504333579468524</v>
       </c>
       <c r="K3" s="26">
-        <f>J3*E3</f>
+        <f t="shared" ref="K3:K14" si="3">J3*E3</f>
         <v>7.6136228489326907</v>
       </c>
-      <c r="L3" s="44"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="57">
+      <c r="B4" s="55">
         <v>5</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="45">
         <v>7.2400556486003396</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="36">
         <v>41.862826268845801</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="42">
         <v>1.8918624523762799</v>
       </c>
       <c r="G4" s="2">
         <v>0.46080653045959202</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="42">
         <f t="shared" si="0"/>
         <v>0.75642704368872349</v>
       </c>
-      <c r="I4" s="49">
-        <f>(D4-(1-H4)*E4)/H4</f>
+      <c r="I4" s="47">
+        <f t="shared" si="1"/>
         <v>-3.9086343222605131</v>
       </c>
-      <c r="J4" s="44">
-        <f>1/(1+3*E4/$C$35)</f>
+      <c r="J4" s="42">
+        <f t="shared" si="2"/>
         <v>0.17711908789295516</v>
       </c>
       <c r="K4" s="1">
-        <f>J4*E4</f>
+        <f t="shared" si="3"/>
         <v>7.4147056053592113</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="56">
+      <c r="B5" s="54">
         <v>8</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="50">
         <v>13.931415193039999</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="51">
         <v>22.884319607715199</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="52">
         <v>1.3133947096291301</v>
       </c>
       <c r="G5" s="25">
         <v>0.53835226307426698</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="52">
         <f t="shared" si="0"/>
         <v>0.59010626498847074</v>
       </c>
-      <c r="I5" s="55">
-        <f>(D5-(1-H5)*E5)/H5</f>
+      <c r="I5" s="53">
+        <f t="shared" si="1"/>
         <v>7.7126379194177215</v>
       </c>
-      <c r="J5" s="54">
-        <f>1/(1+3*E5/$C$35)</f>
+      <c r="J5" s="52">
+        <f t="shared" si="2"/>
         <v>0.28251044189675845</v>
       </c>
       <c r="K5" s="26">
-        <f>J5*E5</f>
+        <f t="shared" si="3"/>
         <v>6.4650592448822746</v>
       </c>
-      <c r="L5" s="44"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>11</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>13.379041253793799</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>36.095885683268797</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="42">
         <v>1.5275522267813499</v>
       </c>
       <c r="G6" s="2">
         <v>0.42015490295138203</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="42">
         <f t="shared" si="0"/>
         <v>0.72494891134643868</v>
       </c>
-      <c r="I6" s="49">
-        <f>(D6-(1-H6)*E6)/H6</f>
+      <c r="I6" s="47">
+        <f t="shared" si="1"/>
         <v>4.7600990175804778</v>
       </c>
-      <c r="J6" s="44">
-        <f>1/(1+3*E6/$C$35)</f>
+      <c r="J6" s="42">
+        <f t="shared" si="2"/>
         <v>0.19976402977470206</v>
       </c>
       <c r="K6" s="1">
-        <f>J6*E6</f>
+        <f t="shared" si="3"/>
         <v>7.2106595823767501</v>
       </c>
-      <c r="L6" s="44"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="56">
+      <c r="B7" s="54">
         <v>14</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="50">
         <v>20.223851717782502</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="51">
         <v>46.031094424366202</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="52">
         <v>1.7673394447689299</v>
       </c>
       <c r="G7" s="25">
         <v>0.40777654058540003</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="52">
         <f t="shared" si="0"/>
         <v>0.7692709559601808</v>
       </c>
-      <c r="I7" s="55">
-        <f>(D7-(1-H7)*E7)/H7</f>
+      <c r="I7" s="53">
+        <f t="shared" si="1"/>
         <v>12.483431527913964</v>
       </c>
-      <c r="J7" s="54">
-        <f>1/(1+3*E7/$C$35)</f>
+      <c r="J7" s="52">
+        <f t="shared" si="2"/>
         <v>0.1637060022800513</v>
       </c>
       <c r="K7" s="26">
-        <f>J7*E7</f>
+        <f t="shared" si="3"/>
         <v>7.5355664487885505</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>16</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>12.4570649430594</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>22.326414077468499</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="42">
         <v>1.7748817210721599</v>
       </c>
       <c r="G8" s="2">
         <v>0.55606217067729802</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="42">
         <f t="shared" si="0"/>
         <v>0.68670466089346205</v>
       </c>
-      <c r="I8" s="49">
-        <f>(D8-(1-H8)*E8)/H8</f>
+      <c r="I8" s="47">
+        <f t="shared" si="1"/>
         <v>7.9543707574650746</v>
       </c>
-      <c r="J8" s="44">
-        <f>1/(1+3*E8/$C$35)</f>
+      <c r="J8" s="42">
+        <f t="shared" si="2"/>
         <v>0.2875400788043424</v>
       </c>
       <c r="K8" s="1">
-        <f>J8*E8</f>
+        <f t="shared" si="3"/>
         <v>6.4197388632536718</v>
       </c>
-      <c r="L8" s="44"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="56">
+      <c r="B9" s="54">
         <v>19</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="50">
         <v>10.946419715329601</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="51">
         <v>41.3677583378227</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="52">
         <v>1.63158333583306</v>
       </c>
       <c r="G9" s="25">
         <v>0.474038139416954</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="52">
         <f t="shared" si="0"/>
         <v>0.70946127665926562</v>
       </c>
-      <c r="I9" s="55">
-        <f>(D9-(1-H9)*E9)/H9</f>
+      <c r="I9" s="53">
+        <f t="shared" si="1"/>
         <v>-1.5117329372220647</v>
       </c>
-      <c r="J9" s="54">
-        <f>1/(1+3*E9/$C$35)</f>
+      <c r="J9" s="52">
+        <f t="shared" si="2"/>
         <v>0.17885963417601283</v>
       </c>
       <c r="K9" s="26">
-        <f>J9*E9</f>
+        <f t="shared" si="3"/>
         <v>7.3990221229846727</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="57">
+      <c r="B10" s="55">
         <v>21</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>42.3764290443196</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>70.394190376426295</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="42">
         <v>1.0268209712124701</v>
       </c>
       <c r="G10" s="2">
         <v>0.63364791058390801</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="42">
         <f t="shared" si="0"/>
         <v>0.38290322427316936</v>
       </c>
-      <c r="I10" s="49">
-        <f>(D10-(1-H10)*E10)/H10</f>
+      <c r="I10" s="47">
+        <f t="shared" si="1"/>
         <v>-2.7777224098665863</v>
       </c>
-      <c r="J10" s="44">
-        <f>1/(1+3*E10/$C$35)</f>
+      <c r="J10" s="42">
+        <f t="shared" si="2"/>
         <v>0.11347752520701077</v>
       </c>
       <c r="K10" s="1">
-        <f>J10*E10</f>
+        <f t="shared" si="3"/>
         <v>7.9881585128680292</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="56">
+      <c r="B11" s="54">
         <v>27</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="50">
         <v>10.042838094060301</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="51">
         <v>19.441559166950402</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <v>1.65164503094854</v>
       </c>
       <c r="G11" s="25">
         <v>0.36160354985295601</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="52">
         <f t="shared" si="0"/>
         <v>0.78106460947889811</v>
       </c>
-      <c r="I11" s="55">
-        <f>(D11-(1-H11)*E11)/H11</f>
+      <c r="I11" s="53">
+        <f t="shared" si="1"/>
         <v>7.4083407125121266</v>
       </c>
-      <c r="J11" s="54">
-        <f>1/(1+3*E11/$C$35)</f>
+      <c r="J11" s="52">
+        <f t="shared" si="2"/>
         <v>0.31669461360806161</v>
       </c>
       <c r="K11" s="26">
-        <f>J11*E11</f>
+        <f t="shared" si="3"/>
         <v>6.1570370683156259</v>
       </c>
-      <c r="L11" s="44"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:14" s="24" customFormat="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="57">
+      <c r="A12" s="37"/>
+      <c r="B12" s="55">
         <v>32</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="45">
         <v>4.81046503051736</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>35.869121816015401</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="42">
         <v>2.1967906677561801</v>
       </c>
       <c r="G12" s="2">
         <v>0.38637956223555497</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="43">
         <f t="shared" si="0"/>
         <v>0.82411634940610601</v>
       </c>
-      <c r="I12" s="50">
-        <f>(D12-(1-H12)*E12)/H12</f>
+      <c r="I12" s="48">
+        <f t="shared" si="1"/>
         <v>-1.8181013629450173</v>
       </c>
-      <c r="J12" s="45">
-        <f>1/(1+3*E12/$C$35)</f>
+      <c r="J12" s="43">
+        <f t="shared" si="2"/>
         <v>0.20077337641962478</v>
       </c>
       <c r="K12" s="31">
-        <f>J12*E12</f>
+        <f t="shared" si="3"/>
         <v>7.2015646962082354</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" s="24" customFormat="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="56">
+      <c r="A13" s="37"/>
+      <c r="B13" s="54">
         <v>34</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="50">
         <v>7.3615758218360599</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="51">
         <v>20.183808492096901</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="52">
         <v>1.83909319932013</v>
       </c>
       <c r="G13" s="25">
         <v>0.35668134024120202</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="52">
         <f t="shared" si="0"/>
         <v>0.80605586472014645</v>
       </c>
-      <c r="I13" s="55">
-        <f>(D13-(1-H13)*E13)/H13</f>
+      <c r="I13" s="53">
+        <f t="shared" si="1"/>
         <v>4.276433790825326</v>
       </c>
-      <c r="J13" s="54">
-        <f>1/(1+3*E13/$C$35)</f>
+      <c r="J13" s="52">
+        <f t="shared" si="2"/>
         <v>0.30864287224433468</v>
       </c>
       <c r="K13" s="26">
-        <f>J13*E13</f>
+        <f t="shared" si="3"/>
         <v>6.229588625830381</v>
       </c>
-      <c r="L13" s="45"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
     </row>
     <row r="14" spans="1:14" s="24" customFormat="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="57">
+      <c r="A14" s="37"/>
+      <c r="B14" s="55">
         <v>39</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="45">
         <v>10.9503916311275</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>10.9011360963647</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="42">
         <v>2.94937457599179</v>
       </c>
       <c r="G14" s="2">
         <v>0.457887359531786</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="42">
         <f t="shared" si="0"/>
         <v>0.84475103187671186</v>
       </c>
-      <c r="I14" s="49">
-        <f>(D14-(1-H14)*E14)/H14</f>
+      <c r="I14" s="47">
+        <f t="shared" si="1"/>
         <v>10.959443849660218</v>
       </c>
-      <c r="J14" s="44">
-        <f>1/(1+3*E14/$C$35)</f>
+      <c r="J14" s="42">
+        <f t="shared" si="2"/>
         <v>0.45252892336780487</v>
       </c>
       <c r="K14" s="1">
-        <f>J14*E14</f>
+        <f t="shared" si="3"/>
         <v>4.9330793811738332</v>
       </c>
-      <c r="L14" s="45"/>
+      <c r="L14" s="43"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
     </row>
     <row r="15" spans="1:14" s="19" customFormat="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="44"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:14" s="19" customFormat="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="D16" s="43">
-        <f>AVERAGE(D3:D14)</f>
+      <c r="B16" s="55"/>
+      <c r="D16" s="46">
+        <f t="shared" ref="D16:H16" si="4">AVERAGE(D3:D14)</f>
         <v>15.227813400113078</v>
       </c>
-      <c r="E16" s="69">
-        <f>AVERAGE(E3:E14)</f>
+      <c r="E16" s="46">
+        <f t="shared" si="4"/>
         <v>34.70537769200228</v>
       </c>
-      <c r="F16" s="43">
-        <f>AVERAGE(F3:F14)</f>
+      <c r="F16" s="46">
+        <f t="shared" si="4"/>
         <v>1.802752220865558</v>
       </c>
-      <c r="G16" s="69">
-        <f>AVERAGE(G3:G14)</f>
+      <c r="G16" s="46">
+        <f t="shared" si="4"/>
         <v>0.4663208451148127</v>
       </c>
-      <c r="H16" s="43">
-        <f>AVERAGE(H3:H14)</f>
+      <c r="H16" s="46">
+        <f t="shared" si="4"/>
         <v>0.71773527984575791</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="46">
         <f>AVERAGE(I3:I14)</f>
         <v>5.6152767100242604</v>
       </c>
-      <c r="J16" s="43">
-        <f t="shared" ref="J16:K16" si="1">AVERAGE(J3:J14)</f>
+      <c r="J16" s="46">
+        <f t="shared" ref="J16:K16" si="5">AVERAGE(J3:J14)</f>
         <v>0.23638832678886201</v>
       </c>
-      <c r="K16" s="69">
-        <f t="shared" si="1"/>
+      <c r="K16" s="46">
+        <f t="shared" si="5"/>
         <v>6.8806502500811604</v>
       </c>
-      <c r="L16" s="44"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" s="19" customFormat="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="D17" s="44">
-        <f>STDEVA(D3:D14)</f>
+      <c r="B17" s="55"/>
+      <c r="D17" s="47">
+        <f t="shared" ref="D17:H17" si="6">STDEVA(D3:D14)</f>
         <v>10.71346621738301</v>
       </c>
-      <c r="E17" s="2">
-        <f>STDEVA(E3:E14)</f>
+      <c r="E17" s="47">
+        <f t="shared" si="6"/>
         <v>16.546726043182563</v>
       </c>
-      <c r="F17" s="44">
-        <f>STDEVA(F3:F14)</f>
+      <c r="F17" s="47">
+        <f t="shared" si="6"/>
         <v>0.47847060421793908</v>
       </c>
-      <c r="G17" s="2">
-        <f>STDEVA(G3:G14)</f>
+      <c r="G17" s="47">
+        <f t="shared" si="6"/>
         <v>8.6410483557239182E-2</v>
       </c>
-      <c r="H17" s="44">
-        <f>STDEVA(H3:H14)</f>
+      <c r="H17" s="47">
+        <f t="shared" si="6"/>
         <v>0.1255065170617311</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="47">
         <f>STDEVA(I3:I14)</f>
         <v>7.5192691244222463</v>
       </c>
-      <c r="J17" s="44">
-        <f t="shared" ref="J17:K17" si="2">STDEVA(J3:J14)</f>
+      <c r="J17" s="47">
+        <f t="shared" ref="J17:K17" si="7">STDEVA(J3:J14)</f>
         <v>9.514069855812754E-2</v>
       </c>
-      <c r="K17" s="67">
-        <f t="shared" si="2"/>
+      <c r="K17" s="47">
+        <f t="shared" si="7"/>
         <v>0.85728112114110777</v>
       </c>
-      <c r="L17" s="44"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" s="19" customFormat="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="61">
-        <f>D17/SQRT(COUNT(D3:D14)-1)</f>
+      <c r="B18" s="56"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="63">
+        <f t="shared" ref="D18:H18" si="8">D17/SQRT(COUNT(D3:D14)-1)</f>
         <v>3.2302316042915984</v>
       </c>
-      <c r="E18" s="62">
-        <f>E17/SQRT(COUNT(E3:E14)-1)</f>
+      <c r="E18" s="63">
+        <f t="shared" si="8"/>
         <v>4.9890256176398733</v>
       </c>
-      <c r="F18" s="61">
-        <f>F17/SQRT(COUNT(F3:F14)-1)</f>
+      <c r="F18" s="63">
+        <f t="shared" si="8"/>
         <v>0.1442643152186858</v>
       </c>
-      <c r="G18" s="62">
-        <f>G17/SQRT(COUNT(G3:G14)-1)</f>
+      <c r="G18" s="63">
+        <f t="shared" si="8"/>
         <v>2.605374108295792E-2</v>
       </c>
-      <c r="H18" s="61">
-        <f>H17/SQRT(COUNT(H3:H14)-1)</f>
+      <c r="H18" s="63">
+        <f t="shared" si="8"/>
         <v>3.7841638712554575E-2</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="63">
         <f>I17/SQRT(COUNT(I3:I14)-1)</f>
         <v>2.2671449439466147</v>
       </c>
-      <c r="J18" s="61">
-        <f t="shared" ref="J18:K18" si="3">J17/SQRT(COUNT(J3:J14)-1)</f>
+      <c r="J18" s="63">
+        <f t="shared" ref="J18:K18" si="9">J17/SQRT(COUNT(J3:J14)-1)</f>
         <v>2.8685999946328731E-2</v>
       </c>
-      <c r="K18" s="66">
-        <f t="shared" si="3"/>
+      <c r="K18" s="63">
+        <f t="shared" si="9"/>
         <v>0.25847998351638807</v>
       </c>
-      <c r="L18" s="44"/>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" s="19" customFormat="1">
       <c r="D19" s="2"/>
@@ -11194,10 +11196,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A544C46-8A4E-704E-9B4C-D59AC133C1EF}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11213,14 +11215,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34" t="s">
+      <c r="L1" s="72"/>
+      <c r="M1" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="N1" s="34"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -11691,7 +11693,9 @@
         <f t="shared" si="4"/>
         <v>2.7622345549153389</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" t="s">
+        <v>284</v>
+      </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
@@ -11745,7 +11749,9 @@
         <f t="shared" si="4"/>
         <v>2.7646033842709254</v>
       </c>
-      <c r="O11" s="19"/>
+      <c r="O11" t="s">
+        <v>284</v>
+      </c>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
@@ -11799,7 +11805,9 @@
         <f t="shared" ref="N12" si="8">M12*14912</f>
         <v>2.7473598042744318</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="37" t="s">
+        <v>284</v>
+      </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
@@ -11829,42 +11837,44 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="2">
-        <f>AVERAGE(D3:D12)</f>
-        <v>12.08416546338383</v>
+        <f t="shared" ref="D14:I14" si="9">AVERAGE(D3:D9)</f>
+        <v>12.822428494224852</v>
       </c>
       <c r="E14" s="2">
-        <f>AVERAGE(E3:E12)</f>
-        <v>35.424714435467912</v>
+        <f t="shared" si="9"/>
+        <v>41.326320771271405</v>
       </c>
       <c r="F14" s="2">
-        <f>AVERAGE(F3:F11)</f>
-        <v>0.38784962125176686</v>
+        <f t="shared" si="9"/>
+        <v>0.33252834311095464</v>
       </c>
       <c r="G14" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>3.5236276496724108</v>
+        <f t="shared" si="9"/>
+        <v>3.1442735107485187</v>
       </c>
       <c r="H14" s="2">
-        <f>AVERAGE(H3:H12)</f>
-        <v>0.6080142837512762</v>
+        <f t="shared" si="9"/>
+        <v>0.64222142154123518</v>
       </c>
       <c r="I14" s="2">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.81741979753317762</v>
+        <f t="shared" si="9"/>
+        <v>0.79035511101129763</v>
       </c>
       <c r="J14" s="2">
-        <f>AVERAGE(J3:J12)</f>
-        <v>6.299711471740169</v>
+        <f>AVERAGE(J3:J9)</f>
+        <v>5.2242409632684588</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" ref="K14:L14" si="9">AVERAGE(K3:K12)</f>
-        <v>0.28587853806192332</v>
+        <f t="shared" ref="K14:L14" si="10">AVERAGE(K3:K9)</f>
+        <v>0.24381343070363798</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="9"/>
-        <v>9.3273784548605345</v>
-      </c>
-      <c r="M14" s="2"/>
+        <f t="shared" si="10"/>
+        <v>9.8768048437695519</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
@@ -11877,40 +11887,40 @@
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:J15" si="10">STDEVA(D3:D12)</f>
-        <v>9.2429438147116709</v>
+        <f t="shared" ref="D15:I15" si="11">STDEVA(D3:D9)</f>
+        <v>6.9731889016687632</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="10"/>
-        <v>11.572578273158706</v>
+        <f t="shared" si="11"/>
+        <v>7.2057868063392618</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="10"/>
-        <v>0.28836937915050836</v>
+        <f t="shared" si="11"/>
+        <v>0.16972371463832647</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="10"/>
-        <v>0.87337292401533106</v>
+        <f t="shared" si="11"/>
+        <v>0.60343176745670168</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="10"/>
-        <v>0.10040516674441179</v>
+        <f t="shared" si="11"/>
+        <v>7.9487171526184133E-2</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="10"/>
-        <v>5.5961694040799828E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.2877750625749327E-2</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="10"/>
-        <v>10.204763672676876</v>
+        <f>STDEVA(J3:J9)</f>
+        <v>7.827543083818524</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ref="K15:L15" si="11">STDEVA(K3:K12)</f>
-        <v>7.8722938561192862E-2</v>
+        <f t="shared" ref="K15:L15" si="12">STDEVA(K3:K9)</f>
+        <v>3.2573484552006871E-2</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="11"/>
-        <v>1.0282265415272522</v>
+        <f t="shared" si="12"/>
+        <v>0.42545313956194941</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -11923,40 +11933,157 @@
         <v>240</v>
       </c>
       <c r="D16" s="1">
-        <f>D15/SQRT(COUNT(D3:D12)-1)</f>
-        <v>3.0809812715705571</v>
+        <f t="shared" ref="D16:I16" si="13">D15/SQRT(COUNT(D3:D9)-1)</f>
+        <v>2.8467924481878555</v>
       </c>
       <c r="E16" s="1">
-        <f>E15/SQRT(COUNT(E3:E12)-1)</f>
-        <v>3.8575260910529021</v>
+        <f t="shared" si="13"/>
+        <v>2.9417501451350629</v>
       </c>
       <c r="F16" s="1">
-        <f>F15/SQRT(COUNT(F3:F11)-1)</f>
-        <v>0.10899338042261993</v>
+        <f t="shared" si="13"/>
+        <v>7.5902752665014825E-2</v>
       </c>
       <c r="G16" s="1">
-        <f>G15/SQRT(COUNT(G3:G12)-1)</f>
-        <v>0.29112430800511035</v>
+        <f t="shared" si="13"/>
+        <v>0.24634998747578582</v>
       </c>
       <c r="H16" s="1">
-        <f>H15/SQRT(COUNT(H3:H12)-1)</f>
-        <v>3.3468388914803929E-2</v>
+        <f t="shared" si="13"/>
+        <v>3.2450501889372527E-2</v>
       </c>
       <c r="I16" s="1">
-        <f>I15/SQRT(COUNT(I3:I12)-1)</f>
-        <v>1.8653898013599943E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.7504768391897997E-2</v>
       </c>
       <c r="J16" s="1">
-        <f>J15/SQRT(COUNT(J3:J12)-1)</f>
-        <v>3.4015878908922921</v>
+        <f>J15/SQRT(COUNT(J3:J9)-1)</f>
+        <v>3.195581082501147</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:L16" si="12">K15/SQRT(COUNT(K3:K12)-1)</f>
-        <v>2.6240979520397622E-2</v>
+        <f t="shared" ref="K16:L16" si="14">K15/SQRT(COUNT(K3:K9)-1)</f>
+        <v>1.3298069382807857E-2</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="12"/>
-        <v>0.34274218050908406</v>
+        <f t="shared" si="14"/>
+        <v>0.1736905168986492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="1">
+        <f>AVERAGE(D10:D12)</f>
+        <v>10.361551724754777</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:L18" si="15">AVERAGE(E10:E12)</f>
+        <v>21.654299651926436</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="15"/>
+        <v>0.37921072613082957</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="15"/>
+        <v>4.4087873071614938</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="15"/>
+        <v>0.52819762890803834</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="15"/>
+        <v>0.88057073275089737</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="15"/>
+        <v>8.8091426581741636</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="15"/>
+        <v>0.38403045523125573</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="15"/>
+        <v>8.0453835474061588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="D19" s="1">
+        <f>STDEVA(D10:D12)</f>
+        <v>15.238413501913934</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:L19" si="16">STDEVA(E10:E12)</f>
+        <v>6.3680946394145694</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="16"/>
+        <v>0.50836306137012366</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="16"/>
+        <v>0.8131276637167385</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="16"/>
+        <v>0.11295689854054647</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="16"/>
+        <v>5.6030864079452281E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="16"/>
+        <v>16.471551806402001</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="16"/>
+        <v>6.3725225753739914E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="16"/>
+        <v>0.83233641531151192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="D20" s="1">
+        <f>D19/SQRT(COUNT(D10:D12))</f>
+        <v>8.797902137352839</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:L20" si="17">E19/SQRT(COUNT(E10:E12))</f>
+        <v>3.6766211542910145</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="17"/>
+        <v>0.29350355032810316</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="17"/>
+        <v>0.46945947553239048</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="17"/>
+        <v>6.5215695779209756E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="17"/>
+        <v>3.2349434459199109E-3</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="17"/>
+        <v>9.5098548693970617</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="17"/>
+        <v>3.6791776243091413E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="17"/>
+        <v>0.48054965343642958</v>
       </c>
     </row>
   </sheetData>
@@ -11974,7 +12101,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A10" sqref="A10:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11993,485 +12120,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:14" s="36" customFormat="1" ht="18">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60" t="s">
+      <c r="K1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" s="34" customFormat="1" ht="18">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="L2" s="43"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="56">
+      <c r="B3" s="54">
         <v>6</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="54">
         <v>12.781840829533801</v>
       </c>
       <c r="E3" s="28">
         <v>44.560245626773103</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="52">
         <v>3.2258263894167198</v>
       </c>
       <c r="G3" s="25">
         <v>0.69575783120323098</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="52">
         <v>0.78431640540672898</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="53">
         <v>4.0429179536897761</v>
       </c>
-      <c r="J3" s="54">
+      <c r="J3" s="52">
         <v>0.2266743391807465</v>
       </c>
       <c r="K3" s="26">
         <v>10.100664231180543</v>
       </c>
-      <c r="L3" s="44"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="57">
+      <c r="B4" s="55">
         <v>9</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="55">
         <v>10.307004300054</v>
       </c>
       <c r="E4" s="19">
         <v>43.183541617449301</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="42">
         <v>2.8236604859550498</v>
       </c>
       <c r="G4" s="2">
         <v>0.66212585946069202</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="42">
         <v>0.7655079770552724</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="47">
         <v>0.2361938394894407</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="42">
         <v>0.23222263974740315</v>
       </c>
       <c r="K4" s="1">
         <v>10.028196028045921</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="56">
+      <c r="B5" s="54">
         <v>12</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="54">
         <v>8.3531381851342701</v>
       </c>
       <c r="E5" s="28">
         <v>30.9104011446341</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="52">
         <v>3.2373240457758201</v>
       </c>
       <c r="G5" s="25">
         <v>0.50155578216534302</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="52">
         <v>0.84507087487278532</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <v>4.2176542636159375</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="52">
         <v>0.29703930236997755</v>
       </c>
       <c r="K5" s="26">
         <v>9.1816039919782693</v>
       </c>
-      <c r="L5" s="44"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>17</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="55">
         <v>9.3986794868277492</v>
       </c>
       <c r="E6" s="19">
         <v>42.569398411928901</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="42">
         <v>4.4140960179519704</v>
       </c>
       <c r="G6" s="2">
         <v>0.66785551747885796</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="42">
         <v>0.84869936794244771</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="47">
         <v>3.4852183382251867</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="42">
         <v>0.23478629389852843</v>
       </c>
       <c r="K6" s="1">
         <v>9.9947112866266874</v>
       </c>
-      <c r="L6" s="44"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="56">
+      <c r="B7" s="54">
         <v>22</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="54">
         <v>26.732850185718199</v>
       </c>
       <c r="E7" s="28">
         <v>39.711930712395898</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="52">
         <v>2.6359343916865301</v>
       </c>
       <c r="G7" s="25">
         <v>0.67714190377392303</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="52">
         <v>0.74311124513965143</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="53">
         <v>22.24606592893597</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="52">
         <v>0.24749906168425345</v>
       </c>
       <c r="K7" s="26">
         <v>9.8286655889880716</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>23</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="55">
         <v>16.299246804189501</v>
       </c>
       <c r="E8" s="19">
         <v>53.360414862107604</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="42">
         <v>2.8931738768260402</v>
       </c>
       <c r="G8" s="2">
         <v>0.72605905590735997</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="42">
         <v>0.74904409938061378</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="47">
         <v>3.8824627781594567</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="42">
         <v>0.1966424204147918</v>
       </c>
       <c r="K8" s="1">
         <v>10.492921132822268</v>
       </c>
-      <c r="L8" s="44"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="56">
+      <c r="B9" s="54">
         <v>35</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="54">
         <v>5.8842396681164404</v>
       </c>
       <c r="E9" s="28">
         <v>34.9883130236109</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="52">
         <v>2.7798993676274999</v>
       </c>
       <c r="G9" s="25">
         <v>0.56505400079923995</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="52">
         <v>0.79673580728158366</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="53">
         <v>-1.540826359236557</v>
       </c>
-      <c r="J9" s="54">
+      <c r="J9" s="52">
         <v>0.27182995762976481</v>
       </c>
       <c r="K9" s="26">
         <v>9.5108716467450982</v>
       </c>
-      <c r="L9" s="44"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="57">
+      <c r="A10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="55">
         <v>37</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="55">
         <v>27.915523844514201</v>
       </c>
       <c r="E10" s="19">
         <v>29.004986266572899</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="42">
         <v>3.4853884344771</v>
       </c>
       <c r="G10" s="2">
         <v>0.40756119279391001</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="42">
         <v>0.88306577575045664</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="47">
         <v>27.77125889090506</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="42">
         <v>0.3104938453746367</v>
       </c>
       <c r="K10" s="1">
         <v>9.0058697209467464</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="56">
+      <c r="A11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="54">
         <v>40</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="54">
         <v>2.6347052600453602</v>
       </c>
       <c r="E11" s="28">
         <v>18.146837422999901</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="52">
         <v>4.7232539722014604</v>
       </c>
       <c r="G11" s="25">
         <v>0.54556938448958903</v>
       </c>
-      <c r="H11" s="54">
+      <c r="H11" s="52">
         <v>0.8844928966978024</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="53">
         <v>0.6089552976961331</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="52">
         <v>0.41852287451621084</v>
       </c>
       <c r="K11" s="26">
         <v>7.5948665616522666</v>
       </c>
-      <c r="L11" s="44"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:14" s="24" customFormat="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="57">
+      <c r="A12" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="55">
         <v>43</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="55">
         <v>0.53442606970476703</v>
       </c>
       <c r="E12" s="19">
         <v>17.811075266206501</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="42">
         <v>5.0177195148059202</v>
       </c>
       <c r="G12" s="2">
         <v>0.63146230944061599</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="43">
         <v>0.87415352580443306</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="48">
         <v>-1.952786214078704</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="43">
         <v>0.42307464580291987</v>
       </c>
       <c r="K12" s="31">
         <v>7.5354143596194625</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" s="19" customFormat="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="44"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:14" s="19" customFormat="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="D14" s="43">
+      <c r="B14" s="55"/>
+      <c r="D14" s="41">
         <v>12.08416546338383</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="67">
         <v>35.424714435467912</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="41">
         <v>3.5236276496724108</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="67">
         <v>0.6080142837512762</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="41">
         <v>0.81741979753317762</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="46">
         <v>6.299711471740169</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="41">
         <v>0.28587853806192332</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="67">
         <v>9.3273784548605345</v>
       </c>
-      <c r="L14" s="44"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:14" s="19" customFormat="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="D15" s="44">
+      <c r="B15" s="55"/>
+      <c r="D15" s="42">
         <v>9.2429438147116709</v>
       </c>
       <c r="E15" s="2">
         <v>11.572578273158706</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="42">
         <v>0.87337292401533106</v>
       </c>
       <c r="G15" s="2">
         <v>0.10040516674441179</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="42">
         <v>5.5961694040799828E-2</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="47">
         <v>10.204763672676876</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="42">
         <v>7.8722938561192862E-2</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="65">
         <v>1.0282265415272522</v>
       </c>
-      <c r="L15" s="44"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:14" s="19" customFormat="1">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="61">
+      <c r="B16" s="56"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="59">
         <v>3.0809812715705571</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="60">
         <v>3.8575260910529021</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="59">
         <v>0.29112430800511035</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="60">
         <v>3.3468388914803929E-2</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="59">
         <v>1.8653898013599943E-2</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="63">
         <v>3.4015878908922921</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="59">
         <v>2.6240979520397622E-2</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="64">
         <v>0.34274218050908406</v>
       </c>
-      <c r="L16" s="44"/>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" s="19" customFormat="1">
       <c r="D17" s="2"/>

--- a/FRAP-analysis-190408.xlsx
+++ b/FRAP-analysis-190408.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramaguire/Google Drive/Thesis/Thesis Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5B3D4-1C10-3A41-8326-F586FA7C3536}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D5D29-E171-A748-BF2B-B470AA520419}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="7" xr2:uid="{A9073BF0-BA06-8246-BE23-0DC2BC3153F9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="5" xr2:uid="{A9073BF0-BA06-8246-BE23-0DC2BC3153F9}"/>
   </bookViews>
   <sheets>
     <sheet name="List of datasets" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'List of gels'!$A$1:$N$89</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="290">
   <si>
     <t>Gel type</t>
   </si>
@@ -1054,6 +1053,15 @@
   </si>
   <si>
     <t xml:space="preserve">10 mg/mL </t>
+  </si>
+  <si>
+    <t>KD predict (M)</t>
+  </si>
+  <si>
+    <t>KD predict (uM)</t>
+  </si>
+  <si>
+    <t>assume Nt = 1 mg/mL</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1306,6 +1314,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6885,7 +6897,7 @@
         <v>22.884319607715199</v>
       </c>
       <c r="F4" s="19">
-        <f>D4/E4</f>
+        <f t="shared" ref="F4:F9" si="0">D4/E4</f>
         <v>0.60877559096592826</v>
       </c>
       <c r="G4" s="19">
@@ -6912,7 +6924,7 @@
         <v>36.095885683268797</v>
       </c>
       <c r="F5" s="19">
-        <f>D5/E5</f>
+        <f t="shared" si="0"/>
         <v>0.37065280434427089</v>
       </c>
       <c r="G5" s="19">
@@ -6939,7 +6951,7 @@
         <v>46.031094424366202</v>
       </c>
       <c r="F6" s="19">
-        <f>D6/E6</f>
+        <f t="shared" si="0"/>
         <v>0.43935196350832717</v>
       </c>
       <c r="G6" s="19">
@@ -6966,7 +6978,7 @@
         <v>22.326414077468499</v>
       </c>
       <c r="F7" s="19">
-        <f>D7/E7</f>
+        <f t="shared" si="0"/>
         <v>0.55795189052015715</v>
       </c>
       <c r="G7" s="19">
@@ -6993,7 +7005,7 @@
         <v>41.3677583378227</v>
       </c>
       <c r="F8" s="19">
-        <f>D8/E8</f>
+        <f t="shared" si="0"/>
         <v>0.26461234921016369</v>
       </c>
       <c r="G8" s="19">
@@ -7020,7 +7032,7 @@
         <v>70.394190376426295</v>
       </c>
       <c r="F9" s="19">
-        <f>D9/E9</f>
+        <f t="shared" si="0"/>
         <v>0.60198759042068162</v>
       </c>
       <c r="G9" s="19">
@@ -7093,7 +7105,7 @@
         <v>20.183808492096901</v>
       </c>
       <c r="F12" s="19">
-        <f>D12/E12</f>
+        <f t="shared" ref="F12:F19" si="1">D12/E12</f>
         <v>0.36472679696294841</v>
       </c>
       <c r="G12" s="19">
@@ -7120,7 +7132,7 @@
         <v>10.9011360963647</v>
       </c>
       <c r="F13" s="19">
-        <f>D13/E13</f>
+        <f t="shared" si="1"/>
         <v>1.0045183854533497</v>
       </c>
       <c r="G13" s="19">
@@ -7147,7 +7159,7 @@
         <v>44.560245626773103</v>
       </c>
       <c r="F14" s="19">
-        <f>D14/E14</f>
+        <f t="shared" si="1"/>
         <v>0.28684403889044308</v>
       </c>
       <c r="G14" s="19">
@@ -7174,7 +7186,7 @@
         <v>43.183541617449301</v>
       </c>
       <c r="F15" s="19">
-        <f>D15/E15</f>
+        <f t="shared" si="1"/>
         <v>0.23867899468183543</v>
       </c>
       <c r="G15" s="19">
@@ -7201,7 +7213,7 @@
         <v>30.9104011446341</v>
       </c>
       <c r="F16" s="19">
-        <f>D16/E16</f>
+        <f t="shared" si="1"/>
         <v>0.2702371329976847</v>
       </c>
       <c r="G16" s="19">
@@ -7228,7 +7240,7 @@
         <v>42.569398411928901</v>
       </c>
       <c r="F17" s="19">
-        <f>D17/E17</f>
+        <f t="shared" si="1"/>
         <v>0.22078487921957637</v>
       </c>
       <c r="G17" s="19">
@@ -7255,7 +7267,7 @@
         <v>39.711930712395898</v>
       </c>
       <c r="F18" s="19">
-        <f>D18/E18</f>
+        <f t="shared" si="1"/>
         <v>0.6731692392224502</v>
       </c>
       <c r="G18" s="19">
@@ -7282,7 +7294,7 @@
         <v>53.360414862107604</v>
       </c>
       <c r="F19" s="19">
-        <f>D19/E19</f>
+        <f t="shared" si="1"/>
         <v>0.30545577365373805</v>
       </c>
       <c r="G19" s="19">
@@ -7332,7 +7344,7 @@
         <v>29.004986266572899</v>
       </c>
       <c r="F21" s="19">
-        <f>D21/E21</f>
+        <f t="shared" ref="F21:F38" si="2">D21/E21</f>
         <v>0.96243878855704679</v>
       </c>
       <c r="G21" s="19">
@@ -7359,7 +7371,7 @@
         <v>18.146837422999901</v>
       </c>
       <c r="F22" s="19">
-        <f>D22/E22</f>
+        <f t="shared" si="2"/>
         <v>0.1451881227913602</v>
       </c>
       <c r="G22" s="19">
@@ -7386,7 +7398,7 @@
         <v>17.811075266206501</v>
       </c>
       <c r="F23" s="19">
-        <f>D23/E23</f>
+        <f t="shared" si="2"/>
         <v>3.0005267044081834E-2</v>
       </c>
       <c r="G23" s="19">
@@ -7413,7 +7425,7 @@
         <v>26.701718003743199</v>
       </c>
       <c r="F24" s="19">
-        <f>D24/E24</f>
+        <f t="shared" si="2"/>
         <v>1.5570226973613028</v>
       </c>
       <c r="G24" s="19">
@@ -7440,7 +7452,7 @@
         <v>71.213773666190406</v>
       </c>
       <c r="F25" s="19">
-        <f>D25/E25</f>
+        <f t="shared" si="2"/>
         <v>0.96405073143146136</v>
       </c>
       <c r="G25" s="19">
@@ -7467,7 +7479,7 @@
         <v>26.402570800341099</v>
       </c>
       <c r="F26" s="19">
-        <f>D26/E26</f>
+        <f t="shared" si="2"/>
         <v>0.95749146887188352</v>
       </c>
       <c r="G26" s="19">
@@ -7494,7 +7506,7 @@
         <v>126.26430006096</v>
       </c>
       <c r="F27" s="19">
-        <f>D27/E27</f>
+        <f t="shared" si="2"/>
         <v>1.404117603401104</v>
       </c>
       <c r="G27" s="19">
@@ -7521,7 +7533,7 @@
         <v>71.499631169558</v>
       </c>
       <c r="F28" s="19">
-        <f>D28/E28</f>
+        <f t="shared" si="2"/>
         <v>1.0069137256904195</v>
       </c>
       <c r="G28" s="19">
@@ -7548,7 +7560,7 @@
         <v>25.8287038913023</v>
       </c>
       <c r="F29" s="19">
-        <f>D29/E29</f>
+        <f t="shared" si="2"/>
         <v>1.2828262483032118</v>
       </c>
       <c r="G29" s="19">
@@ -7575,7 +7587,7 @@
         <v>68.139648991330205</v>
       </c>
       <c r="F30" s="19">
-        <f>D30/E30</f>
+        <f t="shared" si="2"/>
         <v>1.4692981262965343</v>
       </c>
       <c r="G30" s="19">
@@ -7602,7 +7614,7 @@
         <v>26.520995286782401</v>
       </c>
       <c r="F31" s="19">
-        <f>D31/E31</f>
+        <f t="shared" si="2"/>
         <v>1.0117614108037212</v>
       </c>
       <c r="G31" s="19">
@@ -7629,7 +7641,7 @@
         <v>27.622707706662698</v>
       </c>
       <c r="F32" s="19">
-        <f>D32/E32</f>
+        <f t="shared" si="2"/>
         <v>1.1281598550893877</v>
       </c>
       <c r="G32" s="19">
@@ -7656,7 +7668,7 @@
         <v>61.437581286543498</v>
       </c>
       <c r="F33" s="19">
-        <f>D33/E33</f>
+        <f t="shared" si="2"/>
         <v>1.2172183985133884</v>
       </c>
       <c r="G33" s="19">
@@ -7683,7 +7695,7 @@
         <v>15.207550491225399</v>
       </c>
       <c r="F34" s="19">
-        <f>D34/E34</f>
+        <f t="shared" si="2"/>
         <v>0.71470362157600187</v>
       </c>
       <c r="G34" s="19">
@@ -7710,7 +7722,7 @@
         <v>31.9935373143629</v>
       </c>
       <c r="F35" s="19">
-        <f>D35/E35</f>
+        <f t="shared" si="2"/>
         <v>1.1813003617494651</v>
       </c>
       <c r="G35" s="19">
@@ -7737,7 +7749,7 @@
         <v>15.584490555396</v>
       </c>
       <c r="F36" s="19">
-        <f>D36/E36</f>
+        <f t="shared" si="2"/>
         <v>1.1764208285663489</v>
       </c>
       <c r="G36" s="19">
@@ -7764,7 +7776,7 @@
         <v>44.2171995934142</v>
       </c>
       <c r="F37" s="19">
-        <f>D37/E37</f>
+        <f t="shared" si="2"/>
         <v>0.9224738762852166</v>
       </c>
       <c r="G37" s="19">
@@ -7791,7 +7803,7 @@
         <v>57.944403738835199</v>
       </c>
       <c r="F38" s="19">
-        <f>D38/E38</f>
+        <f t="shared" si="2"/>
         <v>1.429838654159441</v>
       </c>
       <c r="G38" s="19">
@@ -9329,8 +9341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE29F74-13EB-B64A-A652-3C18F5FB9619}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9344,7 +9356,8 @@
     <col min="12" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="12.83203125" style="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="13" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -9356,6 +9369,10 @@
         <v>266</v>
       </c>
       <c r="N1" s="73"/>
+      <c r="O1" s="73" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -9400,6 +9417,12 @@
       <c r="N2" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="O2" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="19">
@@ -9451,6 +9474,14 @@
         <f t="shared" ref="N3:N12" si="5">M3*14912</f>
         <v>3.4482959556699617</v>
       </c>
+      <c r="O3" s="22">
+        <f>$B$39*((1/I3)-1)</f>
+        <v>2.3928907351392089E-5</v>
+      </c>
+      <c r="P3" s="1">
+        <f>O3*1000000</f>
+        <v>23.928907351392088</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="19">
@@ -9499,6 +9530,14 @@
         <f t="shared" si="5"/>
         <v>3.5000103552433544</v>
       </c>
+      <c r="O4" s="22">
+        <f t="shared" ref="O4:O14" si="6">$B$39*((1/I4)-1)</f>
+        <v>2.1593653339165519E-5</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P14" si="7">O4*1000000</f>
+        <v>21.59365333916552</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="19">
@@ -9517,7 +9556,7 @@
         <v>22.884319607715199</v>
       </c>
       <c r="F5" s="19">
-        <f t="shared" ref="F5:F10" si="6">D5/E5</f>
+        <f t="shared" ref="F5:F10" si="8">D5/E5</f>
         <v>0.60877559096592826</v>
       </c>
       <c r="G5" s="19">
@@ -9550,6 +9589,14 @@
         <f t="shared" si="5"/>
         <v>3.016035673469077</v>
       </c>
+      <c r="O5" s="22">
+        <f t="shared" si="6"/>
+        <v>4.6580608755986996E-5</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="7"/>
+        <v>46.580608755986994</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="19">
@@ -9568,7 +9615,7 @@
         <v>36.095885683268797</v>
       </c>
       <c r="F6" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.37065280434427089</v>
       </c>
       <c r="G6" s="19">
@@ -9601,6 +9648,14 @@
         <f t="shared" si="5"/>
         <v>3.4155729260816785</v>
       </c>
+      <c r="O6" s="22">
+        <f t="shared" si="6"/>
+        <v>2.5443102715177201E-5</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="7"/>
+        <v>25.443102715177201</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="19">
@@ -9619,7 +9674,7 @@
         <v>46.031094424366202</v>
       </c>
       <c r="F7" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.43935196350832717</v>
       </c>
       <c r="G7" s="19">
@@ -9652,6 +9707,14 @@
         <f t="shared" si="5"/>
         <v>3.5335999886652369</v>
       </c>
+      <c r="O7" s="22">
+        <f t="shared" si="6"/>
+        <v>2.0113471564860865E-5</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="7"/>
+        <v>20.113471564860866</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="19">
@@ -9670,7 +9733,7 @@
         <v>22.326414077468499</v>
       </c>
       <c r="F8" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.55795189052015715</v>
       </c>
       <c r="G8" s="19">
@@ -9703,6 +9766,14 @@
         <f t="shared" si="5"/>
         <v>3.3087453759162337</v>
       </c>
+      <c r="O8" s="22">
+        <f t="shared" si="6"/>
+        <v>3.0594829960019356E-5</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="7"/>
+        <v>30.594829960019357</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="19">
@@ -9721,7 +9792,7 @@
         <v>41.3677583378227</v>
       </c>
       <c r="F9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26461234921016369</v>
       </c>
       <c r="G9" s="19">
@@ -9754,6 +9825,14 @@
         <f t="shared" si="5"/>
         <v>3.3728872672265724</v>
       </c>
+      <c r="O9" s="22">
+        <f t="shared" si="6"/>
+        <v>2.7462459710162958E-5</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="7"/>
+        <v>27.462459710162957</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="19">
@@ -9772,7 +9851,7 @@
         <v>70.394190376426295</v>
       </c>
       <c r="F10" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.60198759042068162</v>
       </c>
       <c r="G10" s="19">
@@ -9805,6 +9884,14 @@
         <f t="shared" si="5"/>
         <v>2.2502440989191888</v>
       </c>
+      <c r="O10" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0807577509558548E-4</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="7"/>
+        <v>108.07577509558547</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="19">
@@ -9853,6 +9940,14 @@
         <f t="shared" si="5"/>
         <v>3.5640163136342369</v>
       </c>
+      <c r="O11" s="22">
+        <f t="shared" si="6"/>
+        <v>1.8797197956360783E-5</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="7"/>
+        <v>18.797197956360783</v>
+      </c>
     </row>
     <row r="12" spans="1:17" s="24" customFormat="1">
       <c r="A12" s="19">
@@ -9901,8 +9996,14 @@
         <f t="shared" si="5"/>
         <v>3.6717101617218697</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="33"/>
+      <c r="O12" s="22">
+        <f t="shared" si="6"/>
+        <v>1.4312023678010293E-5</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="7"/>
+        <v>14.312023678010293</v>
+      </c>
       <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="1:17" s="24" customFormat="1">
@@ -9932,11 +10033,11 @@
         <v>0.35668134024120202</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" ref="I13:I14" si="7">1-H13/G13</f>
+        <f t="shared" ref="I13:I14" si="9">1-H13/G13</f>
         <v>0.80605586472014645</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ref="J13:J14" si="8">(D13-(1-I13)*E13)/I13</f>
+        <f t="shared" ref="J13:J14" si="10">(D13-(1-I13)*E13)/I13</f>
         <v>4.276433790825326</v>
       </c>
       <c r="K13" s="1">
@@ -9944,7 +10045,7 @@
         <v>0.30864287224433468</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" ref="L13:L14" si="9">K13*E13</f>
+        <f t="shared" ref="L13:L14" si="11">K13*E13</f>
         <v>6.229588625830381</v>
       </c>
       <c r="M13" s="22">
@@ -9952,11 +10053,17 @@
         <v>2.4323746283482251E-4</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" ref="N13:N14" si="10">M13*14912</f>
+        <f t="shared" ref="N13:N14" si="12">M13*14912</f>
         <v>3.6271570457928735</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="33"/>
+      <c r="O13" s="22">
+        <f t="shared" si="6"/>
+        <v>1.6135246859034696E-5</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="7"/>
+        <v>16.135246859034694</v>
+      </c>
       <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17" s="24" customFormat="1">
@@ -9986,11 +10093,11 @@
         <v>0.457887359531786</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.84475103187671186</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.959443849660218</v>
       </c>
       <c r="K14" s="1">
@@ -9998,7 +10105,7 @@
         <v>0.45252892336780487</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.9330793811738332</v>
       </c>
       <c r="M14" s="22">
@@ -10006,11 +10113,17 @@
         <v>2.4956717975348805E-4</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.7215457844840136</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="33"/>
+      <c r="O14" s="22">
+        <f t="shared" si="6"/>
+        <v>1.2324352070112453E-5</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="7"/>
+        <v>12.324352070112454</v>
+      </c>
       <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" s="19" customFormat="1">
@@ -10025,7 +10138,8 @@
       <c r="L15" s="2"/>
       <c r="M15" s="23"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:17" s="19" customFormat="1">
       <c r="A16" s="19" t="s">
@@ -10040,7 +10154,7 @@
         <v>34.70537769200228</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16" si="11">AVERAGE(F3:F12)</f>
+        <f t="shared" ref="F16" si="13">AVERAGE(F3:F12)</f>
         <v>0.49059654110465251</v>
       </c>
       <c r="G16" s="2">
@@ -10063,9 +10177,10 @@
       <c r="L16" s="2"/>
       <c r="M16" s="23"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" s="19" customFormat="1">
+      <c r="O16" s="23"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" s="19" customFormat="1">
       <c r="A17" s="19" t="s">
         <v>241</v>
       </c>
@@ -10078,7 +10193,7 @@
         <v>16.546726043182563</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ref="F17" si="12">STDEVA(F3:F12)</f>
+        <f t="shared" ref="F17" si="14">STDEVA(F3:F12)</f>
         <v>0.13480963804884469</v>
       </c>
       <c r="G17" s="2">
@@ -10101,9 +10216,10 @@
       <c r="L17" s="2"/>
       <c r="M17" s="23"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" s="19" customFormat="1">
+      <c r="O17" s="23"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" s="19" customFormat="1">
       <c r="A18" t="s">
         <v>240</v>
       </c>
@@ -10118,7 +10234,7 @@
         <v>4.9890256176398733</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ref="F18" si="13">F17/SQRT(COUNT(F3:F12)-1)</f>
+        <f t="shared" ref="F18" si="15">F17/SQRT(COUNT(F3:F12)-1)</f>
         <v>5.5035804271492988E-2</v>
       </c>
       <c r="G18" s="1">
@@ -10141,9 +10257,10 @@
       <c r="L18" s="2"/>
       <c r="M18" s="23"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" s="19" customFormat="1">
+      <c r="O18" s="23"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" s="19" customFormat="1">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -10155,9 +10272,10 @@
       <c r="L19" s="2"/>
       <c r="M19" s="23"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" s="19" customFormat="1">
+      <c r="O19" s="23"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" s="19" customFormat="1">
       <c r="A20" s="20" t="s">
         <v>260</v>
       </c>
@@ -10175,9 +10293,10 @@
       <c r="L20" s="2"/>
       <c r="M20" s="23"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" s="19" customFormat="1">
+      <c r="O20" s="23"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" s="19" customFormat="1">
       <c r="A21" s="20" t="s">
         <v>259</v>
       </c>
@@ -10196,9 +10315,10 @@
       <c r="L21" s="2"/>
       <c r="M21" s="23"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" s="19" customFormat="1">
+      <c r="O21" s="23"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" s="19" customFormat="1">
       <c r="A22" s="20" t="s">
         <v>258</v>
       </c>
@@ -10216,9 +10336,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="23"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="O22" s="23"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="20" t="s">
         <v>257</v>
       </c>
@@ -10226,7 +10347,7 @@
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="20" t="s">
         <v>256</v>
       </c>
@@ -10235,7 +10356,7 @@
         <v>5.4500000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" s="20" t="s">
         <v>255</v>
       </c>
@@ -10244,7 +10365,7 @@
         <v>3.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" s="20" t="s">
         <v>254</v>
       </c>
@@ -10252,7 +10373,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>253</v>
       </c>
@@ -10261,7 +10382,7 @@
         <v>545000</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>252</v>
       </c>
@@ -10270,7 +10391,7 @@
         <v>395000</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>251</v>
       </c>
@@ -10279,7 +10400,7 @@
         <v>4.9600000000000001E-8</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>250</v>
       </c>
@@ -10342,9 +10463,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11198,8 +11320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A544C46-8A4E-704E-9B4C-D59AC133C1EF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11212,6 +11334,8 @@
     <col min="12" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -11223,6 +11347,10 @@
         <v>266</v>
       </c>
       <c r="N1" s="72"/>
+      <c r="O1" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
@@ -11267,6 +11395,12 @@
       <c r="N2" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="19">
@@ -11318,8 +11452,14 @@
         <f t="shared" ref="N3:N11" si="4">M3*14912</f>
         <v>2.5891214415695858</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="O3" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I3)-1)</f>
+        <v>1.8441231456248124E-5</v>
+      </c>
+      <c r="P3" s="2">
+        <f>O3*1000000</f>
+        <v>18.441231456248126</v>
+      </c>
       <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17">
@@ -11372,8 +11512,14 @@
         <f t="shared" si="4"/>
         <v>2.5539537432681247</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="O4" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I4)-1)</f>
+        <v>2.0541987357512104E-5</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ref="P4:P12" si="5">O4*1000000</f>
+        <v>20.541987357512102</v>
+      </c>
       <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17">
@@ -11426,8 +11572,14 @@
         <f t="shared" si="4"/>
         <v>2.6978206299819663</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I5)-1)</f>
+        <v>1.2294306594381669E-5</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="5"/>
+        <v>12.29430659438167</v>
+      </c>
       <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17">
@@ -11480,8 +11632,14 @@
         <f t="shared" si="4"/>
         <v>2.7040864792381698</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I6)-1)</f>
+        <v>1.1955038210475269E-5</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="5"/>
+        <v>11.955038210475269</v>
+      </c>
       <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17">
@@ -11534,8 +11692,14 @@
         <f t="shared" si="4"/>
         <v>2.5110867667087438</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="O7" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I7)-1)</f>
+        <v>2.3182238277439123E-5</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="5"/>
+        <v>23.182238277439122</v>
+      </c>
       <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17">
@@ -11588,228 +11752,258 @@
         <f t="shared" si="4"/>
         <v>2.5225490412151976</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="O8" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I8)-1)</f>
+        <v>2.246746787102536E-5</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="5"/>
+        <v>22.467467871025359</v>
+      </c>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" s="24" customFormat="1">
-      <c r="A9" s="19">
+    <row r="9" spans="1:17" s="33" customFormat="1">
+      <c r="A9" s="20">
         <v>35</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <v>5.8842396681164404</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="20">
         <v>34.9883130236109</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20">
         <v>2.7798993676274999</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="20">
         <v>0.56505400079923995</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="21">
         <f t="shared" si="1"/>
         <v>0.79673580728158366</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="31">
         <f t="shared" si="2"/>
         <v>-1.540826359236557</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="31">
         <f>1/(1+3*E9/'CCT1'!$B$36)</f>
         <v>0.27182995762976481</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="21">
         <f t="shared" si="3"/>
         <v>9.5108716467450982</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="32">
         <f>'CCT1'!$B$25*I9/(I9+1)</f>
         <v>1.7515688316602031E-4</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="31">
         <f t="shared" si="4"/>
         <v>2.6119394417716948</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="19">
+      <c r="O9" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I9)-1)</f>
+        <v>1.7108449358859719E-5</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="5"/>
+        <v>17.108449358859719</v>
+      </c>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" s="24" customFormat="1">
+      <c r="A10" s="28">
         <v>37</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="28">
         <v>27.915523844514201</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="28">
         <v>29.004986266572899</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="28">
         <f>D10/E10</f>
         <v>0.96243878855704679</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="28">
         <v>3.4853884344771</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="28">
         <v>0.40756119279391001</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="25">
         <f t="shared" si="1"/>
         <v>0.88306577575045664</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="26">
         <f t="shared" si="2"/>
         <v>27.77125889090506</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="26">
         <f>1/(1+3*E10/'CCT1'!$B$36)</f>
         <v>0.3104938453746367</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="25">
         <f t="shared" si="3"/>
         <v>9.0058697209467464</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="27">
         <f>'CCT1'!$B$25*I10/(I10+1)</f>
         <v>1.8523568635430115E-4</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="26">
         <f t="shared" si="4"/>
         <v>2.7622345549153389</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I10)-1)</f>
+        <v>8.8799943682369469E-6</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="5"/>
+        <v>8.8799943682369467</v>
+      </c>
+      <c r="Q10" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="19">
+    </row>
+    <row r="11" spans="1:17" s="24" customFormat="1">
+      <c r="A11" s="28">
         <v>40</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="28">
         <v>2.6347052600453602</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="28">
         <v>18.146837422999901</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="28">
         <f>D11/E11</f>
         <v>0.1451881227913602</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="28">
         <v>4.7232539722014604</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="28">
         <v>0.54556938448958903</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
         <v>0.8844928966978024</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="26">
         <f t="shared" si="2"/>
         <v>0.6089552976961331</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="26">
         <f>1/(1+3*E11/'CCT1'!$B$36)</f>
         <v>0.41852287451621084</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="25">
         <f t="shared" si="3"/>
         <v>7.5948665616522666</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="27">
         <f>'CCT1'!$B$25*I11/(I11+1)</f>
         <v>1.8539454025421977E-4</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="26">
         <f t="shared" si="4"/>
         <v>2.7646033842709254</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I11)-1)</f>
+        <v>8.7574657650016922E-6</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="5"/>
+        <v>8.757465765001692</v>
+      </c>
+      <c r="Q11" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="19">
+    </row>
+    <row r="12" spans="1:17" s="24" customFormat="1">
+      <c r="A12" s="28">
         <v>43</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="28">
         <v>0.53442606970476703</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="28">
         <v>17.811075266206501</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="28">
         <f>D12/E12</f>
         <v>3.0005267044081834E-2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="28">
         <v>5.0177195148059202</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="28">
         <v>0.63146230944061599</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" ref="I12" si="5">1-H12/G12</f>
+      <c r="I12" s="25">
+        <f t="shared" ref="I12" si="6">1-H12/G12</f>
         <v>0.87415352580443306</v>
       </c>
-      <c r="J12" s="1">
-        <f t="shared" ref="J12" si="6">(D12-(1-I12)*E12)/I12</f>
+      <c r="J12" s="26">
+        <f t="shared" ref="J12" si="7">(D12-(1-I12)*E12)/I12</f>
         <v>-1.952786214078704</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="26">
         <f>1/(1+3*E12/'CCT1'!$B$36)</f>
         <v>0.42307464580291987</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" ref="L12" si="7">K12*E12</f>
+      <c r="L12" s="25">
+        <f t="shared" ref="L12" si="8">K12*E12</f>
         <v>7.5354143596194625</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="27">
         <f>'CCT1'!$B$25*I12/(I12+1)</f>
         <v>1.8423818429951931E-4</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" ref="N12" si="8">M12*14912</f>
+      <c r="N12" s="26">
+        <f t="shared" ref="N12" si="9">M12*14912</f>
         <v>2.7473598042744318</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="19">
+        <f>'CCT1'!$B$39*((1/'CCT2'!I12)-1)</f>
+        <v>9.65422561678855E-6</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="5"/>
+        <v>9.6542256167885494</v>
+      </c>
+      <c r="Q12" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="19"/>
@@ -11827,7 +12021,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17">
@@ -11837,27 +12031,27 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:I14" si="9">AVERAGE(D3:D9)</f>
+        <f t="shared" ref="D14:I14" si="10">AVERAGE(D3:D9)</f>
         <v>12.822428494224852</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41.326320771271405</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.33252834311095464</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1442735107485187</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.64222142154123518</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.79035511101129763</v>
       </c>
       <c r="J14" s="2">
@@ -11865,11 +12059,11 @@
         <v>5.2242409632684588</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" ref="K14:L14" si="10">AVERAGE(K3:K9)</f>
+        <f t="shared" ref="K14:L14" si="11">AVERAGE(K3:K9)</f>
         <v>0.24381343070363798</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.8768048437695519</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -11877,7 +12071,7 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17">
@@ -11887,27 +12081,27 @@
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:I15" si="11">STDEVA(D3:D9)</f>
+        <f t="shared" ref="D15:I15" si="12">STDEVA(D3:D9)</f>
         <v>6.9731889016687632</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2057868063392618</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16972371463832647</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.60343176745670168</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9487171526184133E-2</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.2877750625749327E-2</v>
       </c>
       <c r="J15" s="2">
@@ -11915,17 +12109,17 @@
         <v>7.827543083818524</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ref="K15:L15" si="12">STDEVA(K3:K9)</f>
+        <f t="shared" ref="K15:L15" si="13">STDEVA(K3:K9)</f>
         <v>3.2573484552006871E-2</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.42545313956194941</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17">
@@ -11933,27 +12127,27 @@
         <v>240</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:I16" si="13">D15/SQRT(COUNT(D3:D9)-1)</f>
+        <f t="shared" ref="D16:I16" si="14">D15/SQRT(COUNT(D3:D9)-1)</f>
         <v>2.8467924481878555</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9417501451350629</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.5902752665014825E-2</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.24634998747578582</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2450501889372527E-2</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.7504768391897997E-2</v>
       </c>
       <c r="J16" s="1">
@@ -11961,11 +12155,11 @@
         <v>3.195581082501147</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:L16" si="14">K15/SQRT(COUNT(K3:K9)-1)</f>
+        <f t="shared" ref="K16:L16" si="15">K15/SQRT(COUNT(K3:K9)-1)</f>
         <v>1.3298069382807857E-2</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1736905168986492</v>
       </c>
     </row>
@@ -11978,35 +12172,35 @@
         <v>10.361551724754777</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:L18" si="15">AVERAGE(E10:E12)</f>
+        <f t="shared" ref="E18:L18" si="16">AVERAGE(E10:E12)</f>
         <v>21.654299651926436</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.37921072613082957</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.4087873071614938</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.52819762890803834</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.88057073275089737</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.8091426581741636</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.38403045523125573</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.0453835474061588</v>
       </c>
     </row>
@@ -12016,35 +12210,35 @@
         <v>15.238413501913934</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:L19" si="16">STDEVA(E10:E12)</f>
+        <f t="shared" ref="E19:L19" si="17">STDEVA(E10:E12)</f>
         <v>6.3680946394145694</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.50836306137012366</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.8131276637167385</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.11295689854054647</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.6030864079452281E-3</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16.471551806402001</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.3725225753739914E-2</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.83233641531151192</v>
       </c>
     </row>
@@ -12054,42 +12248,43 @@
         <v>8.797902137352839</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:L20" si="17">E19/SQRT(COUNT(E10:E12))</f>
+        <f t="shared" ref="E20:L20" si="18">E19/SQRT(COUNT(E10:E12))</f>
         <v>3.6766211542910145</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.29350355032810316</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.46945947553239048</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.5215695779209756E-2</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.2349434459199109E-3</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.5098548693970617</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6791776243091413E-2</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.48054965343642958</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FRAP-analysis-190408.xlsx
+++ b/FRAP-analysis-190408.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramaguire/Google Drive/Thesis/Thesis Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D5D29-E171-A748-BF2B-B470AA520419}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC730963-066B-F144-B058-57D9225C3A6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="5" xr2:uid="{A9073BF0-BA06-8246-BE23-0DC2BC3153F9}"/>
   </bookViews>
@@ -9342,7 +9342,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10178,7 +10178,10 @@
       <c r="M16" s="23"/>
       <c r="N16" s="2"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2">
+        <f>AVERAGE(P3:P14)</f>
+        <v>30.446802421322388</v>
+      </c>
     </row>
     <row r="17" spans="1:16" s="19" customFormat="1">
       <c r="A17" s="19" t="s">
@@ -10217,7 +10220,10 @@
       <c r="M17" s="23"/>
       <c r="N17" s="2"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="2">
+        <f>STDEVA(P3:P14)</f>
+        <v>26.072363389155459</v>
+      </c>
     </row>
     <row r="18" spans="1:16" s="19" customFormat="1">
       <c r="A18" t="s">
@@ -10253,12 +10259,30 @@
         <f>J17/SQRT(COUNT(J3:J14)-1)</f>
         <v>2.2671449439466147</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="2"/>
+      <c r="K18" s="1">
+        <f t="shared" ref="K18:P18" si="16">K17/SQRT(COUNT(K3:K14)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="16"/>
+        <v>7.8611133417843204</v>
+      </c>
     </row>
     <row r="19" spans="1:16" s="19" customFormat="1">
       <c r="D19" s="2"/>
@@ -11321,7 +11345,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P1"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12071,7 +12095,10 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="2">
+        <f>AVERAGE(P3:P9)</f>
+        <v>17.998674160848768</v>
+      </c>
       <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17">
@@ -12116,10 +12143,22 @@
         <f t="shared" si="13"/>
         <v>0.42545313956194941</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="2"/>
+      <c r="M15" s="2">
+        <f t="shared" ref="M15:P15" si="14">STDEVA(M3:M9)</f>
+        <v>5.2429593964449745E-6</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="14"/>
+        <v>7.8183010519787557E-2</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="14"/>
+        <v>4.5343429914199493E-6</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="14"/>
+        <v>4.5343429914199413</v>
+      </c>
       <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17">
@@ -12127,27 +12166,27 @@
         <v>240</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:I16" si="14">D15/SQRT(COUNT(D3:D9)-1)</f>
+        <f t="shared" ref="D16:I16" si="15">D15/SQRT(COUNT(D3:D9)-1)</f>
         <v>2.8467924481878555</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9417501451350629</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.5902752665014825E-2</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.24634998747578582</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2450501889372527E-2</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.7504768391897997E-2</v>
       </c>
       <c r="J16" s="1">
@@ -12155,12 +12194,28 @@
         <v>3.195581082501147</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ref="K16:L16" si="15">K15/SQRT(COUNT(K3:K9)-1)</f>
+        <f t="shared" ref="K16:L16" si="16">K15/SQRT(COUNT(K3:K9)-1)</f>
         <v>1.3298069382807857E-2</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.1736905168986492</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ref="M16:P16" si="17">M15/SQRT(COUNT(M3:M9)-1)</f>
+        <v>2.140429210570108E-6</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="17"/>
+        <v>3.1918080388021491E-2</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="17"/>
+        <v>1.8511377746239933E-6</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="17"/>
+        <v>1.8511377746239899</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12172,35 +12227,35 @@
         <v>10.361551724754777</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:L18" si="16">AVERAGE(E10:E12)</f>
+        <f t="shared" ref="E18:L18" si="18">AVERAGE(E10:E12)</f>
         <v>21.654299651926436</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.37921072613082957</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.4087873071614938</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.52819762890803834</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.88057073275089737</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.8091426581741636</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.38403045523125573</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.0453835474061588</v>
       </c>
     </row>
@@ -12210,35 +12265,35 @@
         <v>15.238413501913934</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:L19" si="17">STDEVA(E10:E12)</f>
+        <f t="shared" ref="E19:L19" si="19">STDEVA(E10:E12)</f>
         <v>6.3680946394145694</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.50836306137012366</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.8131276637167385</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.11295689854054647</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.6030864079452281E-3</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>16.471551806402001</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>6.3725225753739914E-2</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.83233641531151192</v>
       </c>
     </row>
@@ -12248,35 +12303,35 @@
         <v>8.797902137352839</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:L20" si="18">E19/SQRT(COUNT(E10:E12))</f>
+        <f t="shared" ref="E20:L20" si="20">E19/SQRT(COUNT(E10:E12))</f>
         <v>3.6766211542910145</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.29350355032810316</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.46945947553239048</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.5215695779209756E-2</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.2349434459199109E-3</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.5098548693970617</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.6791776243091413E-2</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.48054965343642958</v>
       </c>
     </row>
